--- a/project_management/project_tracking_gnlg2.xlsx
+++ b/project_management/project_tracking_gnlg2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/M1MIAGE-202122/Projet genealogie GNLG2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/repositories/GNLG2/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F8D8436-E707-6146-AF06-D35DD8908A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{921BFBFD-54A8-1F47-954F-B8193BA2C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="69" r:id="rId3"/>
+    <pivotCache cacheId="125" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="258" uniqueCount="50">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="338" uniqueCount="65">
   <si>
     <t>CM</t>
   </si>
@@ -179,6 +179,51 @@
   </si>
   <si>
     <t>"expoactes" documentation analysis</t>
+  </si>
+  <si>
+    <t>Metting to determine tasks to do</t>
+  </si>
+  <si>
+    <t>Metting with M. Oudot</t>
+  </si>
+  <si>
+    <t>Developement and creation of a Laravel project</t>
+  </si>
+  <si>
+    <t>DEV.MET</t>
+  </si>
+  <si>
+    <t>Development metting</t>
+  </si>
+  <si>
+    <t>Developement metting</t>
+  </si>
+  <si>
+    <t>Workbook v3 redaction</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Learning about</t>
+  </si>
+  <si>
+    <t>L.GF</t>
+  </si>
+  <si>
+    <t>Learning about GEDCOM files</t>
+  </si>
+  <si>
+    <t>Searching about GEDCOM files</t>
+  </si>
+  <si>
+    <t>L.DB</t>
+  </si>
+  <si>
+    <t>Learning about DB</t>
+  </si>
+  <si>
+    <t>Occupied by IRL complications</t>
   </si>
 </sst>
 </file>
@@ -376,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <start/>
       <end/>
@@ -543,6 +588,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -575,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,36 +662,12 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,6 +680,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,13 +769,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-05T15:51:37.16000002808869050" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="68" xr:uid="{B67E4103-8AEA-4442-BF79-BFF5ACBB99CB}">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-11T22:46:09.74000008776783900" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="205" xr:uid="{B67E4103-8AEA-4442-BF79-BFF5ACBB99CB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C22:G319" sheet="Tab"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-06T00:00:00" count="10">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-12T00:00:00" count="13">
         <d v="2021-10-22T00:00:00"/>
         <d v="2021-10-27T00:00:00"/>
         <d v="2021-10-28T00:00:00"/>
@@ -708,6 +785,9 @@
         <d v="2021-11-03T00:00:00"/>
         <d v="2021-11-04T00:00:00"/>
         <d v="2021-11-05T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2021-11-10T00:00:00"/>
+        <d v="2021-11-11T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -722,11 +802,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="What" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="9">
         <s v="GM.MET"/>
         <s v="WR"/>
         <s v="PC"/>
         <s v="PT"/>
+        <s v="DEV"/>
+        <s v="DEV.MET"/>
+        <s v="L.DB"/>
+        <s v="L.GF"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -746,7 +830,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
+<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="205">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1218,8 +1302,967 @@
   </r>
   <r>
     <x v="9"/>
-    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <s v="Workbook v3 redaction"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <s v="Sick"/>
+  </r>
+  <r>
+    <x v="10"/>
     <x v="4"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <s v="Metting to determine tasks to do"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <s v="Metting to determine tasks to do"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <s v="Metting to determine tasks to do"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <s v="Metting to determine tasks to do"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <s v="Metting to determine tasks to do"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.8"/>
+    <s v="Developement and creation of a Laravel project"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <s v="Developement metting"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <s v="Developement metting"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <s v="Occupied by IRL complications"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0.9"/>
+    <s v="Searching about GEDCOM files"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <s v="Workbook v3 redaction"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <s v="Workbook v3 redaction"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <s v="Developement metting"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <s v="Developement metting"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook v3 redaction"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.9"/>
+    <s v="Workbook v3 redaction"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook v3 redaction"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Developement and creation of a Laravel project"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1"/>
+    <s v="Searching about GEDCOM files"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.2"/>
+    <s v="Project tracking redaction"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="8"/>
     <m/>
     <m/>
   </r>
@@ -1227,21 +2270,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F52BCBBC-4C28-6B4A-984B-C243FEABACB6}" name="DataPilot1" cacheId="69" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
-  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F52BCBBC-4C28-6B4A-984B-C243FEABACB6}" name="DataPilot1" cacheId="125" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
+  <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
+      <items count="14">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="9"/>
-        <item x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="12"/>
+        <item h="1" x="5"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1256,12 +2302,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
+      <items count="9">
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="8"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1270,7 +2320,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -1281,7 +2331,16 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -1622,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M89"/>
+  <dimension ref="A2:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1750,8 +2809,38 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>38</v>
@@ -1775,982 +2864,952 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="36" t="d">
+      <c r="C23" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="29">
         <v>0.1</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="36" t="d">
+      <c r="C24" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="29">
         <v>0.1</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="36" t="d">
+      <c r="C25" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="29">
         <v>0.1</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="36" t="d">
+      <c r="C26" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="29">
         <v>0.1</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="36" t="d">
+      <c r="C27" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="29">
         <v>0.1</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="36" t="d">
+      <c r="C28" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="29">
         <v>0.3</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="36" t="d">
+      <c r="C29" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="29">
         <v>0.3</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="36" t="d">
+      <c r="C30" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="29">
         <v>0.3</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="36" t="d">
+      <c r="C31" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="29">
         <v>0.3</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="36" t="d">
+      <c r="C32" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="29">
         <v>0.3</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="36" t="d">
+      <c r="C33" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="29">
         <v>0.4</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C34" s="36" t="d">
+      <c r="C34" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="29">
         <v>0.4</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C35" s="36" t="d">
+      <c r="C35" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="29">
         <v>0.4</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="36" t="d">
+      <c r="C36" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="29">
         <v>0.4</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C37" s="36" t="d">
+      <c r="C37" s="28" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="29">
         <v>0.4</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C38" s="36" t="d">
+      <c r="C38" s="28" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="29">
         <v>0.3</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C39" s="36" t="d">
+      <c r="C39" s="28" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="29">
         <v>0.3</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="36" t="d">
+      <c r="C40" s="28" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="29">
         <v>0.3</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C41" s="36" t="d">
+      <c r="C41" s="28" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="29">
         <v>0.3</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C42" s="36" t="d">
+      <c r="C42" s="28" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="29">
         <v>0.3</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="39" t="d">
+      <c r="C43" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="29">
         <v>0.45</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C44" s="39" t="d">
+      <c r="C44" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="29">
         <v>0.45</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C45" s="39" t="d">
+      <c r="C45" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="29">
         <v>0.45</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="39" t="d">
+      <c r="C46" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="29">
         <v>0.45</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C47" s="39" t="d">
+      <c r="C47" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="29">
         <v>0.45</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C48" s="36" t="d">
+      <c r="C48" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="29">
         <v>0.1</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C49" s="36" t="d">
+      <c r="C49" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="29">
         <v>0.1</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C50" s="36" t="d">
+      <c r="C50" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="29">
         <v>0.1</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C51" s="36" t="d">
+      <c r="C51" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="29">
         <v>0.1</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C52" s="36" t="d">
+      <c r="C52" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="29">
         <v>0.1</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C53" s="39" t="d">
+      <c r="C53" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="29">
         <v>0.5</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C54" s="39" t="d">
+      <c r="C54" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="29">
         <v>0.5</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C55" s="39" t="d">
+      <c r="C55" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="29">
         <v>0.5</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C56" s="39" t="d">
+      <c r="C56" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="29">
         <v>0.5</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C57" s="39" t="d">
+      <c r="C57" s="31" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="29">
         <v>0.5</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C58" s="36" t="d">
+      <c r="C58" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="29">
         <v>0.4</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C59" s="36" t="d">
+      <c r="C59" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="29">
         <v>0.4</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C60" s="36" t="d">
+      <c r="C60" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="29">
         <v>0.45</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C61" s="36" t="d">
+      <c r="C61" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="29">
         <v>0.4</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C62" s="39" t="d">
+      <c r="C62" s="31" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="29">
         <v>0.4</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C63" s="36" t="d">
+      <c r="C63" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="29">
         <v>0.25</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C64" s="29" t="d">
+      <c r="C64" s="28" t="d">
         <v>2021-11-01</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="29">
         <v>0.5</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C65" s="31" t="d">
+      <c r="C65" s="32" t="d">
         <v>2021-11-02</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="33">
         <v>1</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="G65" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C66" s="31" t="d">
+      <c r="C66" s="32" t="d">
         <v>2021-11-02</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="33">
         <v>0.8</v>
       </c>
-      <c r="G66" s="32" t="s">
+      <c r="G66" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C67" s="31" t="d">
+      <c r="C67" s="32" t="d">
         <v>2021-11-02</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F67" s="33">
         <v>1</v>
       </c>
-      <c r="G67" s="32" t="s">
+      <c r="G67" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C68" s="29" t="d">
+      <c r="C68" s="28" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="29">
         <v>0.1</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C69" s="29" t="d">
+      <c r="C69" s="28" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="29">
         <v>0.1</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C70" s="29" t="d">
+      <c r="C70" s="28" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="29">
         <v>0.1</v>
       </c>
-      <c r="G70" s="30" t="s">
+      <c r="G70" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C71" s="29" t="d">
+      <c r="C71" s="28" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="29">
         <v>0.1</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G71" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C72" s="29" t="d">
+      <c r="C72" s="28" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="29">
         <v>0.1</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="G72" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C73" s="31" t="d">
+      <c r="C73" s="32" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="33">
         <v>0.3</v>
       </c>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C74" s="31" t="d">
+      <c r="C74" s="32" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F74" s="33">
         <v>0.3</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="G74" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I74" s="25" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="J74" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L74" s="26">
-        <v>1</v>
-      </c>
-      <c r="M74" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C75" s="31" t="d">
+      <c r="C75" s="32" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F75" s="33">
         <v>0.3</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="G75" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I75" s="25" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="J75" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K75" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L75" s="26">
-        <v>1</v>
-      </c>
-      <c r="M75" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="37"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C76" s="31" t="d">
+      <c r="C76" s="32" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="33">
         <v>0.3</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G76" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I76" s="25" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="J76" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K76" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L76" s="26">
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="37"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C77" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="29">
         <v>1</v>
       </c>
-      <c r="M76" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C77" s="29" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="30">
-        <v>1</v>
-      </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2772,191 +3831,954 @@
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C79" s="31" t="d">
+      <c r="C79" s="32" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F79" s="33">
         <v>0.4</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C80" s="31" t="d">
+      <c r="C80" s="32" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F80" s="33">
         <v>1</v>
       </c>
-      <c r="G80" s="32" t="s">
+      <c r="G80" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C81" s="31" t="d">
+      <c r="C81" s="32" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="33">
         <v>1</v>
       </c>
-      <c r="G81" s="32" t="s">
+      <c r="G81" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C82" s="31" t="d">
+      <c r="C82" s="32" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F82" s="33">
         <v>1</v>
       </c>
-      <c r="G82" s="32" t="s">
+      <c r="G82" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C83" s="31" t="d">
+      <c r="C83" s="32" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F83" s="33">
         <v>1</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C84" s="31" t="d">
+      <c r="C84" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="33">
         <v>1</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C85" s="31" t="d">
+      <c r="C85" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="33">
         <v>0.3</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G85" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C86" s="31" t="d">
+      <c r="C86" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="33">
         <v>0.1</v>
       </c>
-      <c r="G86" s="32" t="s">
+      <c r="G86" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C87" s="31" t="d">
+      <c r="C87" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="33">
         <v>0.1</v>
       </c>
-      <c r="G87" s="32" t="s">
+      <c r="G87" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C88" s="31" t="d">
+      <c r="C88" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="33">
         <v>0.1</v>
       </c>
-      <c r="G88" s="32" t="s">
+      <c r="G88" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C89" s="31" t="d">
+      <c r="C89" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="33">
         <v>0.1</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G89" s="30" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C90" s="39" t="d">
+        <v>2021-11-09</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C91" s="41" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C92" s="41" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C93" s="41" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C94" s="41" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C95" s="41" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C96" s="46" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C97" s="46" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C98" s="46" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C99" s="46" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C100" s="46" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C101" s="46" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C102" s="47" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C103" s="47" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C104" s="47" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C105" s="47" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F105" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G105" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C106" s="47" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C107" s="47" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C108" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F108" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C109" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C110" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="24">
+        <v>1</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C111" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C112" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="24">
+        <v>1</v>
+      </c>
+      <c r="G112" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C113" s="48" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C114" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114" s="24">
+        <v>1</v>
+      </c>
+      <c r="G114" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C115" s="47" t="d">
+        <v>2021-11-11</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C118" s="40"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C119" s="40"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C120" s="40"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C123" s="40"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C124" s="40"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C125" s="40"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C126" s="40"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C127" s="40"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C128" s="40"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129" s="40"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C130" s="40"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131" s="40"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C132" s="40"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133" s="40"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="40"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135" s="40"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136" s="40"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137" s="40"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C138" s="40"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C139" s="40"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C140" s="40"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C141" s="40"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C142" s="40"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C143" s="40"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C144" s="40"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C145" s="40"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C146" s="40"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C147" s="40"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C148" s="40"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C149" s="40"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C150" s="40"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C151" s="40"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C152" s="40"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C153" s="40"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C154" s="40"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C155" s="40"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C156" s="40"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C157" s="40"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C158" s="40"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C159" s="40"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C160" s="40"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C161" s="40"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C162" s="40"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C163" s="40"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C164" s="40"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C165" s="40"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C166" s="40"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C167" s="40"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C168" s="40"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C169" s="40"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C170" s="40"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C171" s="40"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C172" s="40"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C173" s="40"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C174" s="40"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C175" s="40"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C176" s="40"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C177" s="40"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C178" s="40"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C179" s="40"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C180" s="40"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C181" s="40"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C182" s="40"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C183" s="40"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C184" s="40"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C185" s="40"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C186" s="40"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C187" s="40"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C188" s="40"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C189" s="40"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C190" s="40"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C191" s="40"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C192" s="40"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C193" s="40"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C194" s="40"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C195" s="40"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C196" s="40"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C197" s="40"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C198" s="40"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C199" s="40"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C200" s="40"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C201" s="40"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C202" s="40"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C203" s="40"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C204" s="40"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C205" s="40"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C206" s="40"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C207" s="40"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C208" s="40"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C209" s="40"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C210" s="40"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C211" s="40"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C212" s="40"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C213" s="40"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C214" s="40"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C215" s="40"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C216" s="40"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C217" s="40"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C218" s="40"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C219" s="40"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C220" s="40"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C221" s="40"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C222" s="40"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C223" s="40"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C224" s="40"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C225" s="40"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C226" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2970,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2988,10 +4810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3036,45 +4858,37 @@
         <v>19</v>
       </c>
       <c r="B5" s="11">
-        <v>0.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C5" s="12">
-        <v>0.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D5" s="12">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="12">
-        <v>0.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F5" s="12">
-        <v>0.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="13">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15">
-        <v>0.1</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.1</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="17">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3085,64 +4899,99 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="16">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D7" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.3</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="17">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="15">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1.8</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B12" s="19">
         <v>2.5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C12" s="20">
         <v>2.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D12" s="20">
         <v>2.5</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E12" s="20">
         <v>2.5</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F12" s="20">
         <v>2.5</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G12" s="21">
         <v>12.5</v>
       </c>
     </row>

--- a/project_management/project_tracking_gnlg2.xlsx
+++ b/project_management/project_tracking_gnlg2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/repositories/GNLG2/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{921BFBFD-54A8-1F47-954F-B8193BA2C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{74FA5B43-E480-1E4A-A8F7-BE921E4F7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="125" r:id="rId3"/>
+    <pivotCache cacheId="23" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="338" uniqueCount="65">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="405" uniqueCount="72">
   <si>
     <t>CM</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>Occupied by IRL complications</t>
+  </si>
+  <si>
+    <t>Metting for having everyone up-do-date on current code + progress</t>
+  </si>
+  <si>
+    <t>Workbook v4 redaction</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Medical mettings</t>
+  </si>
+  <si>
+    <t>Working on laravel  + family365/laravel deployement</t>
+  </si>
+  <si>
+    <t>Workbook v4 corrections</t>
   </si>
 </sst>
 </file>
@@ -631,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,19 +734,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -769,13 +798,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-11T22:46:09.74000008776783900" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="205" xr:uid="{B67E4103-8AEA-4442-BF79-BFF5ACBB99CB}">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-19T16:09:24.87000030465423825" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="188" xr:uid="{33C243A7-C20F-9A41-84D4-AFCEDFA037F4}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C22:G319" sheet="Tab"/>
+    <worksheetSource ref="C34:G222" sheet="Tab"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-12T00:00:00" count="13">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-20T00:00:00" count="16">
         <d v="2021-10-22T00:00:00"/>
         <d v="2021-10-27T00:00:00"/>
         <d v="2021-10-28T00:00:00"/>
@@ -788,21 +817,25 @@
         <d v="2021-11-09T00:00:00"/>
         <d v="2021-11-10T00:00:00"/>
         <d v="2021-11-11T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-11-18T00:00:00"/>
+        <d v="2021-11-19T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Who" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="7">
         <s v="CM"/>
         <s v="PDM"/>
         <s v="LB"/>
         <s v="ICC"/>
         <s v="OS"/>
         <m/>
+        <s v="DEV" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="What" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="GM.MET"/>
         <s v="WR"/>
         <s v="PC"/>
@@ -811,6 +844,7 @@
         <s v="DEV.MET"/>
         <s v="L.DB"/>
         <s v="L.GF"/>
+        <s v="O"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -830,7 +864,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="205">
+<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="188">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1484,785 +1518,666 @@
   </r>
   <r>
     <x v="12"/>
-    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Sick"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.7"/>
+    <s v="Metting for having everyone up-do-date on current code + progress"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.7"/>
+    <s v="Metting for having everyone up-do-date on current code + progress"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="0.7"/>
+    <s v="Metting for having everyone up-do-date on current code + progress"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="0.7"/>
+    <s v="Metting for having everyone up-do-date on current code + progress"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.7"/>
+    <s v="Sick"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <s v="Workbook v4 redaction"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <s v="Workbook v4 redaction"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Working on laravel  + family365/laravel deployement"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Working on laravel  + family365/laravel deployement"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
     <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
+    <n v="1"/>
+    <s v="Medical mettings"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook v4 redaction"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook v4 redaction"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.8"/>
+    <s v="Working on laravel  + family365/laravel deployement"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Working on laravel  + family365/laravel deployement"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.1"/>
+    <s v="Project tracking reporting"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <s v="Workbook v4 corrections"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
     <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="8"/>
+    <n v="0.5"/>
+    <s v="Medical mettings"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="9"/>
     <m/>
     <m/>
   </r>
@@ -2270,11 +2185,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F52BCBBC-4C28-6B4A-984B-C243FEABACB6}" name="DataPilot1" cacheId="125" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
-  <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56ABA1B9-0D18-E44D-8AA9-6D65D511342F}" name="DataPilot1" cacheId="23" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
+  <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="14">
+      <items count="17">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
@@ -2283,35 +2198,40 @@
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="8"/>
-        <item h="1" x="12"/>
+        <item h="1" x="15"/>
         <item h="1" x="5"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="9"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="3"/>
         <item x="2"/>
         <item x="4"/>
         <item x="1"/>
         <item x="5"/>
+        <item m="1" x="6"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="8"/>
+        <item x="9"/>
         <item x="4"/>
         <item x="5"/>
         <item x="7"/>
         <item x="6"/>
+        <item x="8"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2320,7 +2240,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -2337,10 +2257,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -2683,8 +2600,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2809,355 +2726,159 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="45" t="s">
+    <row r="17" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="45" t="s">
+    <row r="18" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="45" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="44" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="23" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D34" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F34" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G34" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C33" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C34" s="28" t="d">
-        <v>2021-10-22</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C35" s="28" t="d">
         <v>2021-10-22</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35" s="29">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C36" s="28" t="d">
         <v>2021-10-22</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="29">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C37" s="28" t="d">
         <v>2021-10-22</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="29">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C38" s="28" t="d">
-        <v>2021-10-27</v>
+        <v>2021-10-22</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="29">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C39" s="28" t="d">
-        <v>2021-10-27</v>
+        <v>2021-10-22</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="29">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C40" s="28" t="d">
-        <v>2021-10-27</v>
+        <v>2021-10-22</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>19</v>
@@ -3165,16 +2886,16 @@
       <c r="F40" s="29">
         <v>0.3</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C41" s="28" t="d">
-        <v>2021-10-27</v>
+        <v>2021-10-22</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>19</v>
@@ -3182,16 +2903,16 @@
       <c r="F41" s="29">
         <v>0.3</v>
       </c>
-      <c r="G41" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G41" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C42" s="28" t="d">
-        <v>2021-10-27</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>6</v>
+        <v>2021-10-22</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>19</v>
@@ -3200,211 +2921,211 @@
         <v>0.3</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="31" t="d">
-        <v>2021-10-28</v>
-      </c>
-      <c r="D43" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C43" s="28" t="d">
+        <v>2021-10-22</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C44" s="28" t="d">
+        <v>2021-10-22</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C45" s="28" t="d">
+        <v>2021-10-22</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C44" s="31" t="d">
-        <v>2021-10-28</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C45" s="31" t="d">
-        <v>2021-10-28</v>
-      </c>
-      <c r="D45" s="30" t="s">
+      <c r="E45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C46" s="28" t="d">
+        <v>2021-10-22</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="31" t="d">
-        <v>2021-10-28</v>
-      </c>
-      <c r="D46" s="30" t="s">
+      <c r="E46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C47" s="28" t="d">
+        <v>2021-10-22</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C48" s="28" t="d">
+        <v>2021-10-22</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C47" s="31" t="d">
-        <v>2021-10-28</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C48" s="28" t="d">
-        <v>2021-10-29</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>0</v>
-      </c>
       <c r="E48" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F48" s="29">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C49" s="28" t="d">
-        <v>2021-10-29</v>
+        <v>2021-10-22</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F49" s="29">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C50" s="28" t="d">
-        <v>2021-10-29</v>
+        <v>2021-10-27</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C51" s="28" t="d">
-        <v>2021-10-29</v>
+        <v>2021-10-27</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C52" s="28" t="d">
-        <v>2021-10-29</v>
+        <v>2021-10-27</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C53" s="31" t="d">
-        <v>2021-10-28</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>44</v>
+      <c r="C53" s="28" t="d">
+        <v>2021-10-27</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="F53" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>30</v>
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C54" s="31" t="d">
-        <v>2021-10-28</v>
+      <c r="C54" s="28" t="d">
+        <v>2021-10-27</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="F54" s="29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.15">
@@ -3412,16 +3133,16 @@
         <v>2021-10-28</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F55" s="29">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.15">
@@ -3429,16 +3150,16 @@
         <v>2021-10-28</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="29">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.15">
@@ -3446,50 +3167,50 @@
         <v>2021-10-28</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E57" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="29">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C58" s="28" t="d">
-        <v>2021-10-29</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>21</v>
+      <c r="C58" s="31" t="d">
+        <v>2021-10-28</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F58" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>37</v>
+        <v>0.45</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C59" s="28" t="d">
-        <v>2021-10-29</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>21</v>
+      <c r="C59" s="31" t="d">
+        <v>2021-10-28</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F59" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>37</v>
+        <v>0.45</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.15">
@@ -3497,16 +3218,16 @@
         <v>2021-10-29</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F60" s="29">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.15">
@@ -3514,33 +3235,33 @@
         <v>2021-10-29</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F61" s="29">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C62" s="31" t="d">
+      <c r="C62" s="28" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62" s="29">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.15">
@@ -3548,72 +3269,72 @@
         <v>2021-10-29</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F63" s="29">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C64" s="28" t="d">
-        <v>2021-11-01</v>
+        <v>2021-10-29</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F64" s="29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C65" s="32" t="d">
-        <v>2021-11-02</v>
+      <c r="C65" s="31" t="d">
+        <v>2021-10-28</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="33">
-        <v>1</v>
+      <c r="F65" s="29">
+        <v>0.5</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C66" s="32" t="d">
-        <v>2021-11-02</v>
+      <c r="C66" s="31" t="d">
+        <v>2021-10-28</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="33">
-        <v>0.8</v>
+      <c r="F66" s="29">
+        <v>0.5</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C67" s="32" t="d">
-        <v>2021-11-02</v>
+      <c r="C67" s="31" t="d">
+        <v>2021-10-28</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>4</v>
@@ -3621,130 +3342,130 @@
       <c r="E67" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="33">
-        <v>1</v>
+      <c r="F67" s="29">
+        <v>0.5</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C68" s="28" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>19</v>
+      <c r="C68" s="31" t="d">
+        <v>2021-10-28</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F68" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>34</v>
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C69" s="28" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>19</v>
+      <c r="C69" s="31" t="d">
+        <v>2021-10-28</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F69" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C70" s="28" t="d">
-        <v>2021-11-03</v>
+        <v>2021-10-29</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F70" s="29">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C71" s="28" t="d">
-        <v>2021-11-03</v>
+        <v>2021-10-29</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F71" s="29">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C72" s="28" t="d">
-        <v>2021-11-03</v>
+        <v>2021-10-29</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F72" s="29">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C73" s="32" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="C73" s="28" t="d">
+        <v>2021-10-29</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C74" s="31" t="d">
+        <v>2021-10-29</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E74" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C74" s="32" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G74" s="30" t="s">
-        <v>49</v>
+      <c r="F74" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="37"/>
@@ -3753,20 +3474,20 @@
       <c r="M74" s="37"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C75" s="32" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>49</v>
+      <c r="C75" s="28" t="d">
+        <v>2021-10-29</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="37"/>
@@ -3775,20 +3496,20 @@
       <c r="M75" s="37"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C76" s="32" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="30" t="s">
+      <c r="C76" s="28" t="d">
+        <v>2021-11-01</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>49</v>
+      <c r="F76" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="37"/>
@@ -3797,981 +3518,1540 @@
       <c r="M76" s="37"/>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C77" s="28" t="d">
-        <v>2021-11-03</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="29">
+      <c r="C77" s="32" t="d">
+        <v>2021-11-02</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="33">
         <v>1</v>
       </c>
-      <c r="G77" s="29" t="s">
-        <v>43</v>
+      <c r="G77" s="30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C78" s="34" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>43</v>
+      <c r="C78" s="32" t="d">
+        <v>2021-11-02</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C79" s="32" t="d">
-        <v>2021-11-04</v>
+        <v>2021-11-02</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F79" s="33">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C80" s="32" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="C80" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C81" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C82" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C83" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D83" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="33">
-        <v>1</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C81" s="32" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="33">
-        <v>1</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C82" s="32" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="33">
-        <v>1</v>
-      </c>
-      <c r="G82" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C83" s="32" t="d">
-        <v>2021-11-04</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="33">
-        <v>1</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>45</v>
+      <c r="E83" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C84" s="32" t="d">
-        <v>2021-11-05</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="33">
-        <v>1</v>
-      </c>
-      <c r="G84" s="30" t="s">
-        <v>46</v>
+      <c r="C84" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C85" s="32" t="d">
-        <v>2021-11-05</v>
+        <v>2021-11-03</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F85" s="33">
         <v>0.3</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C86" s="32" t="d">
-        <v>2021-11-05</v>
+        <v>2021-11-03</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F86" s="33">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C87" s="32" t="d">
-        <v>2021-11-05</v>
+        <v>2021-11-03</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F87" s="33">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="32" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C89" s="28" t="d">
+        <v>2021-11-03</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="29">
+        <v>1</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C90" s="34" t="d">
+        <v>2021-11-04</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C91" s="32" t="d">
+        <v>2021-11-04</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C92" s="32" t="d">
+        <v>2021-11-04</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="33">
+        <v>1</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C93" s="32" t="d">
+        <v>2021-11-04</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="33">
+        <v>1</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C94" s="32" t="d">
+        <v>2021-11-04</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" s="33">
+        <v>1</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C95" s="32" t="d">
+        <v>2021-11-04</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="33">
+        <v>1</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C96" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D96" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="33">
+        <v>1</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C97" s="32" t="d">
+        <v>2021-11-05</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C98" s="32" t="d">
+        <v>2021-11-05</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C99" s="32" t="d">
+        <v>2021-11-05</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C100" s="32" t="d">
+        <v>2021-11-05</v>
+      </c>
+      <c r="D100" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E100" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F100" s="33">
         <v>0.1</v>
       </c>
-      <c r="G88" s="30" t="s">
+      <c r="G100" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C89" s="32" t="d">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C101" s="32" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D101" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E101" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="33">
+      <c r="F101" s="33">
         <v>0.1</v>
       </c>
-      <c r="G89" s="30" t="s">
+      <c r="G101" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C90" s="39" t="d">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C102" s="44" t="d">
         <v>2021-11-09</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D102" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E102" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F102" s="45">
         <v>0.3</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G102" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C91" s="41" t="d">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C103" s="44" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D103" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E103" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F103" s="45">
         <v>0.2</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G103" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C92" s="41" t="d">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C104" s="44" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D104" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E104" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="42">
+      <c r="F104" s="45">
         <v>0.2</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G104" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C93" s="41" t="d">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C105" s="44" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D105" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E105" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F105" s="45">
         <v>0.2</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G105" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C94" s="41" t="d">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C106" s="44" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D106" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E106" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F106" s="45">
         <v>0.2</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G106" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C95" s="41" t="d">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C107" s="44" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D107" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E107" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F95" s="42">
+      <c r="F107" s="45">
         <v>0.2</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="G107" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C96" s="46" t="d">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C108" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D108" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E108" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F108" s="45">
         <v>0.5</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G108" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C97" s="46" t="d">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C109" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D109" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E109" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F109" s="45">
         <v>0.4</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="G109" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C98" s="46" t="d">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C110" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D110" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E110" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F110" s="45">
         <v>0.4</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G110" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C99" s="46" t="d">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C111" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D111" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E111" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F111" s="45">
         <v>0.4</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="G111" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C100" s="46" t="d">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C112" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D112" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="27" t="s">
+      <c r="E112" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F100" s="42">
+      <c r="F112" s="45">
         <v>0.4</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G112" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C101" s="46" t="d">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C113" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D113" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="27" t="s">
+      <c r="E113" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="42">
+      <c r="F113" s="45">
         <v>0.8</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G113" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C102" s="47" t="d">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C114" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D114" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="27" t="s">
+      <c r="E114" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F102" s="24">
+      <c r="F114" s="45">
         <v>0.3</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G114" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C103" s="47" t="d">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C115" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D103" s="27" t="s">
+      <c r="D115" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E103" s="27" t="s">
+      <c r="E115" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F115" s="45">
         <v>0.3</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G115" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C104" s="47" t="d">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C116" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D116" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E116" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="24">
+      <c r="F116" s="45">
         <v>0.8</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G116" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C105" s="47" t="d">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C117" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="D117" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="27" t="s">
+      <c r="E117" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F105" s="24">
+      <c r="F117" s="45">
         <v>0.9</v>
       </c>
-      <c r="G105" s="43" t="s">
+      <c r="G117" s="47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C106" s="47" t="d">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C118" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D118" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E118" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F106" s="24">
+      <c r="F118" s="45">
         <v>0.4</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G118" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C107" s="47" t="d">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C119" s="46" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D119" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E119" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="24">
+      <c r="F119" s="45">
         <v>0.4</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G119" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C108" s="47" t="d">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C120" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D120" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="E120" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F120" s="45">
         <v>0.3</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G120" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C109" s="47" t="d">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C121" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D121" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E109" s="27" t="s">
+      <c r="E121" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="24">
+      <c r="F121" s="45">
         <v>0.3</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="G121" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C110" s="47" t="d">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C122" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D122" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="27" t="s">
+      <c r="E122" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="24">
+      <c r="F122" s="45">
         <v>1</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="G122" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C111" s="47" t="d">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C123" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D123" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E123" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="24">
+      <c r="F123" s="45">
         <v>0.9</v>
       </c>
-      <c r="G111" s="27" t="s">
+      <c r="G123" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C112" s="47" t="d">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C124" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D124" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E124" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="24">
+      <c r="F124" s="45">
         <v>1</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="G124" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C113" s="48" t="d">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C125" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D125" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E125" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F125" s="48">
         <v>0.5</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="G125" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C114" s="47" t="d">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C126" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D126" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E126" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F114" s="24">
+      <c r="F126" s="45">
         <v>1</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G126" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C115" s="47" t="d">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C127" s="46" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D127" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E127" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="24">
+      <c r="F127" s="45">
         <v>0.2</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="G127" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C118" s="40"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C119" s="40"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C120" s="40"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C123" s="40"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C124" s="40"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C125" s="40"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C126" s="40"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C127" s="40"/>
-    </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C128" s="40"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="40"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C130" s="40"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C131" s="40"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C132" s="40"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="40"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" s="40"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C135" s="40"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C136" s="40"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C137" s="40"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="40"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="40"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C140" s="40"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C141" s="40"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C142" s="40"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C143" s="40"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C144" s="40"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C145" s="40"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C146" s="40"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C147" s="40"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C148" s="40"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C149" s="40"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C150" s="40"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C151" s="40"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C152" s="40"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C153" s="40"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C154" s="40"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C155" s="40"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C156" s="40"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C157" s="40"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C158" s="40"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C159" s="40"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C160" s="40"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C161" s="40"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C162" s="40"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C163" s="40"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C164" s="40"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C165" s="40"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C166" s="40"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C167" s="40"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C168" s="40"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C169" s="40"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C170" s="40"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C171" s="40"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C172" s="40"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C173" s="40"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C174" s="40"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C175" s="40"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C176" s="40"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C177" s="40"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C178" s="40"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C179" s="40"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C180" s="40"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C181" s="40"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C182" s="40"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C183" s="40"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C184" s="40"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C185" s="40"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C186" s="40"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C187" s="40"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C188" s="40"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C189" s="40"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C190" s="40"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C191" s="40"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C192" s="40"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C193" s="40"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C194" s="40"/>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C195" s="40"/>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C196" s="40"/>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C197" s="40"/>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C198" s="40"/>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C199" s="40"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C200" s="40"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C201" s="40"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C202" s="40"/>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C203" s="40"/>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C204" s="40"/>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C205" s="40"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C206" s="40"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C207" s="40"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C208" s="40"/>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C209" s="40"/>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C210" s="40"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C211" s="40"/>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="40"/>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C213" s="40"/>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C214" s="40"/>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C215" s="40"/>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C216" s="40"/>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C217" s="40"/>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C218" s="40"/>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C219" s="40"/>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C220" s="40"/>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C128" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C129" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C130" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C131" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G131" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C132" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C133" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G133" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C134" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F134" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C135" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C136" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G136" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C137" s="41" t="d">
+        <v>2021-11-17</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F137" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G137" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C138" s="41" t="d">
+        <v>2021-11-18</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G138" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C139" s="41" t="d">
+        <v>2021-11-18</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G139" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C140" s="41" t="d">
+        <v>2021-11-18</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G140" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C141" s="41" t="d">
+        <v>2021-11-18</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G141" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C142" s="41" t="d">
+        <v>2021-11-18</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F142" s="42">
+        <v>1</v>
+      </c>
+      <c r="G142" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C143" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="42">
+        <v>1</v>
+      </c>
+      <c r="G143" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C144" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" s="42">
+        <v>1</v>
+      </c>
+      <c r="G144" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C145" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="G145" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C146" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="24">
+        <v>1</v>
+      </c>
+      <c r="G146" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C147" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G147" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C148" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G148" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C149" s="39" t="d">
+        <v>2021-11-19</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F149" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G149" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C150" s="50"/>
+      <c r="G150" s="49"/>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C151" s="1"/>
+      <c r="G151" s="49"/>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C152" s="1"/>
+      <c r="G152" s="49"/>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C153" s="1"/>
+      <c r="G153" s="49"/>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C154" s="1"/>
+      <c r="G154" s="49"/>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C155" s="1"/>
+      <c r="G155" s="49"/>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C156" s="1"/>
+      <c r="G156" s="49"/>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C157" s="1"/>
+      <c r="G157" s="49"/>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C158" s="1"/>
+      <c r="G158" s="49"/>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C159" s="1"/>
+      <c r="G159" s="49"/>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C160" s="1"/>
+      <c r="G160" s="49"/>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C161" s="1"/>
+      <c r="G161" s="49"/>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C162" s="1"/>
+      <c r="G162" s="49"/>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C163" s="1"/>
+      <c r="G163" s="49"/>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C164" s="1"/>
+      <c r="G164" s="49"/>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C165" s="1"/>
+      <c r="G165" s="49"/>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C166" s="1"/>
+      <c r="G166" s="49"/>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C167" s="1"/>
+      <c r="G167" s="49"/>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C168" s="1"/>
+      <c r="G168" s="49"/>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C169" s="1"/>
+      <c r="G169" s="49"/>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C170" s="1"/>
+      <c r="G170" s="49"/>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C171" s="1"/>
+      <c r="G171" s="49"/>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C172" s="1"/>
+      <c r="G172" s="49"/>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C173" s="1"/>
+      <c r="G173" s="49"/>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C174" s="1"/>
+      <c r="G174" s="49"/>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C175" s="1"/>
+      <c r="G175" s="49"/>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C176" s="1"/>
+      <c r="G176" s="49"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C177" s="1"/>
+      <c r="G177" s="49"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C178" s="1"/>
+      <c r="G178" s="49"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C179" s="1"/>
+      <c r="G179" s="49"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C180" s="1"/>
+      <c r="G180" s="49"/>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C181" s="1"/>
+      <c r="G181" s="49"/>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C182" s="1"/>
+      <c r="G182" s="49"/>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C183" s="1"/>
+      <c r="G183" s="49"/>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C184" s="1"/>
+      <c r="G184" s="49"/>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C185" s="1"/>
+      <c r="G185" s="49"/>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C186" s="1"/>
+      <c r="G186" s="49"/>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C187" s="1"/>
+      <c r="G187" s="49"/>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C188" s="1"/>
+      <c r="G188" s="49"/>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C189" s="1"/>
+      <c r="G189" s="49"/>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C190" s="1"/>
+      <c r="G190" s="49"/>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C191" s="1"/>
+      <c r="G191" s="49"/>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C192" s="1"/>
+      <c r="G192" s="49"/>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C193" s="1"/>
+      <c r="G193" s="49"/>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C194" s="1"/>
+      <c r="G194" s="49"/>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C195" s="1"/>
+      <c r="G195" s="49"/>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C196" s="1"/>
+      <c r="G196" s="49"/>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C197" s="1"/>
+      <c r="G197" s="49"/>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C198" s="1"/>
+      <c r="G198" s="49"/>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C199" s="1"/>
+      <c r="G199" s="49"/>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C200" s="1"/>
+      <c r="G200" s="49"/>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C201" s="1"/>
+      <c r="G201" s="49"/>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C202" s="1"/>
+      <c r="G202" s="49"/>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C203" s="1"/>
+      <c r="G203" s="49"/>
+    </row>
+    <row r="204" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C204" s="1"/>
+      <c r="G204" s="49"/>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C205" s="1"/>
+      <c r="G205" s="49"/>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C206" s="1"/>
+      <c r="G206" s="49"/>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C207" s="1"/>
+      <c r="G207" s="49"/>
+    </row>
+    <row r="208" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C208" s="1"/>
+      <c r="G208" s="49"/>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C209" s="1"/>
+      <c r="G209" s="49"/>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C210" s="1"/>
+      <c r="G210" s="49"/>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C211" s="1"/>
+      <c r="G211" s="49"/>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C212" s="1"/>
+      <c r="G212" s="49"/>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C213" s="1"/>
+      <c r="G213" s="49"/>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C214" s="1"/>
+      <c r="G214" s="49"/>
+    </row>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C215" s="1"/>
+      <c r="G215" s="49"/>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C216" s="1"/>
+      <c r="G216" s="49"/>
+    </row>
+    <row r="217" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C217" s="1"/>
+      <c r="G217" s="49"/>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C218" s="1"/>
+      <c r="G218" s="49"/>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C219" s="1"/>
+      <c r="G219" s="49"/>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C220" s="1"/>
+      <c r="G220" s="49"/>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C221" s="40"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C222" s="40"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C223" s="40"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C224" s="40"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.15">
@@ -4792,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4858,22 +5138,22 @@
         <v>19</v>
       </c>
       <c r="B5" s="11">
-        <v>0.60000000000000009</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="12">
-        <v>0.60000000000000009</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="12">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="12">
-        <v>0.60000000000000009</v>
+        <v>0.3</v>
       </c>
       <c r="F5" s="12">
-        <v>0.60000000000000009</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="13">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -4882,13 +5162,13 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -4896,18 +5176,18 @@
         <v>21</v>
       </c>
       <c r="B7" s="15">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="16">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -4915,14 +5195,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="16">
+        <v>1.3</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -4930,68 +5212,59 @@
         <v>53</v>
       </c>
       <c r="B9" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.7</v>
+      </c>
       <c r="E9" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F9" s="16"/>
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.7</v>
+      </c>
       <c r="G9" s="17">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B11" s="19">
         <v>2.5</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C11" s="20">
         <v>2.5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D11" s="20">
         <v>2.5</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E11" s="20">
         <v>2.5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F11" s="20">
         <v>2.5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G11" s="21">
         <v>12.5</v>
       </c>
     </row>

--- a/project_management/project_tracking_gnlg2.xlsx
+++ b/project_management/project_tracking_gnlg2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/repositories/GNLG2/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{74FA5B43-E480-1E4A-A8F7-BE921E4F7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{00F355F3-2347-3E46-A28C-C8883C65C78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/project_management/project_tracking_gnlg2.xlsx
+++ b/project_management/project_tracking_gnlg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/repositories/GNLG2/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{00F355F3-2347-3E46-A28C-C8883C65C78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5756B8B9-8C8A-8C47-B121-1BAB590B5C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="70" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="405" uniqueCount="72">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="469" uniqueCount="77">
   <si>
     <t>CM</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>Workbook v4 corrections</t>
+  </si>
+  <si>
+    <t>Update the team on laravel project + development</t>
+  </si>
+  <si>
+    <t>Description on how to do project tracking by ICC</t>
+  </si>
+  <si>
+    <t>Workbook redaction</t>
+  </si>
+  <si>
+    <t>Workbook redaction finalisation</t>
+  </si>
+  <si>
+    <t>Laravel development</t>
   </si>
 </sst>
 </file>
@@ -386,7 +401,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +454,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -652,7 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,14 +704,8 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,16 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,7 +759,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,13 +823,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-19T16:09:24.87000030465423825" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="188" xr:uid="{33C243A7-C20F-9A41-84D4-AFCEDFA037F4}">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-26T16:52:48.529999698512255850" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="188" xr:uid="{33C243A7-C20F-9A41-84D4-AFCEDFA037F4}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C34:G222" sheet="Tab"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-20T00:00:00" count="16">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-27T00:00:00" count="19">
         <d v="2021-10-22T00:00:00"/>
         <d v="2021-10-27T00:00:00"/>
         <d v="2021-10-28T00:00:00"/>
@@ -820,6 +845,9 @@
         <d v="2021-11-17T00:00:00"/>
         <d v="2021-11-18T00:00:00"/>
         <d v="2021-11-19T00:00:00"/>
+        <d v="2021-11-24T00:00:00"/>
+        <d v="2021-11-25T00:00:00"/>
+        <d v="2021-11-26T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1672,510 +1700,510 @@
   </r>
   <r>
     <x v="15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.3"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <s v="Workbook redaction finalisation"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.2"/>
+    <s v="Project tracking reporting"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.2"/>
+    <s v="Description on how to do project tracking by ICC"/>
+  </r>
+  <r>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
+    <x v="18"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
@@ -2185,11 +2213,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56ABA1B9-0D18-E44D-8AA9-6D65D511342F}" name="DataPilot1" cacheId="23" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
-  <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56ABA1B9-0D18-E44D-8AA9-6D65D511342F}" name="DataPilot1" cacheId="70" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
+  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
+      <items count="20">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
@@ -2198,14 +2226,17 @@
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="8"/>
-        <item h="1" x="15"/>
+        <item h="1" x="18"/>
         <item h="1" x="5"/>
         <item h="1" x="10"/>
         <item h="1" x="11"/>
         <item h="1" x="9"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2240,7 +2271,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -2252,12 +2283,6 @@
     </i>
     <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -2600,8 +2625,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2727,42 +2752,42 @@
       </c>
     </row>
     <row r="17" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="38" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2789,1853 +2814,1853 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C35" s="28" t="d">
+      <c r="C35" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="27">
         <v>0.1</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="28" t="d">
+      <c r="C36" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="27">
         <v>0.1</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C37" s="28" t="d">
+      <c r="C37" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="27">
         <v>0.1</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C38" s="28" t="d">
+      <c r="C38" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="27">
         <v>0.1</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C39" s="28" t="d">
+      <c r="C39" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="27">
         <v>0.1</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C40" s="28" t="d">
+      <c r="C40" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <v>0.3</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C41" s="28" t="d">
+      <c r="C41" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="27">
         <v>0.3</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C42" s="28" t="d">
+      <c r="C42" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="27">
         <v>0.3</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="28" t="d">
+      <c r="C43" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="27">
         <v>0.3</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C44" s="28" t="d">
+      <c r="C44" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="27">
         <v>0.3</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C45" s="28" t="d">
+      <c r="C45" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="27">
         <v>0.4</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C46" s="28" t="d">
+      <c r="C46" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="27">
         <v>0.4</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C47" s="28" t="d">
+      <c r="C47" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="27">
         <v>0.4</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C48" s="28" t="d">
+      <c r="C48" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="27">
         <v>0.4</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C49" s="28" t="d">
+      <c r="C49" s="26" t="d">
         <v>2021-10-22</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="27">
         <v>0.4</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C50" s="28" t="d">
+      <c r="C50" s="26" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="27">
         <v>0.3</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C51" s="28" t="d">
+      <c r="C51" s="26" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="27">
         <v>0.3</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C52" s="28" t="d">
+      <c r="C52" s="26" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="27">
         <v>0.3</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C53" s="28" t="d">
+      <c r="C53" s="26" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="27">
         <v>0.3</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C54" s="28" t="d">
+      <c r="C54" s="26" t="d">
         <v>2021-10-27</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="27">
         <v>0.3</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C55" s="31" t="d">
+      <c r="C55" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="27">
         <v>0.45</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C56" s="31" t="d">
+      <c r="C56" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="27">
         <v>0.45</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C57" s="31" t="d">
+      <c r="C57" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="27">
         <v>0.45</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C58" s="31" t="d">
+      <c r="C58" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="27">
         <v>0.45</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C59" s="31" t="d">
+      <c r="C59" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="27">
         <v>0.45</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C60" s="28" t="d">
+      <c r="C60" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="27">
         <v>0.1</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C61" s="28" t="d">
+      <c r="C61" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="27">
         <v>0.1</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C62" s="28" t="d">
+      <c r="C62" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="27">
         <v>0.1</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C63" s="28" t="d">
+      <c r="C63" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="27">
         <v>0.1</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C64" s="28" t="d">
+      <c r="C64" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="27">
         <v>0.1</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C65" s="31" t="d">
+      <c r="C65" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="27">
         <v>0.5</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C66" s="31" t="d">
+      <c r="C66" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="27">
         <v>0.5</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C67" s="31" t="d">
+      <c r="C67" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F67" s="27">
         <v>0.5</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C68" s="31" t="d">
+      <c r="C68" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="27">
         <v>0.5</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C69" s="31" t="d">
+      <c r="C69" s="29" t="d">
         <v>2021-10-28</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F69" s="27">
         <v>0.5</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C70" s="28" t="d">
+      <c r="C70" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="27">
         <v>0.4</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C71" s="28" t="d">
+      <c r="C71" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="27">
         <v>0.4</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C72" s="28" t="d">
+      <c r="C72" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="27">
         <v>0.45</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C73" s="28" t="d">
+      <c r="C73" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="27">
         <v>0.4</v>
       </c>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C74" s="31" t="d">
+      <c r="C74" s="29" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="27">
         <v>0.4</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I74" s="36"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="37"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C75" s="28" t="d">
+      <c r="C75" s="26" t="d">
         <v>2021-10-29</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="27">
         <v>0.25</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="37"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="35"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C76" s="28" t="d">
+      <c r="C76" s="26" t="d">
         <v>2021-11-01</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="27">
         <v>0.5</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="37"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="35"/>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C77" s="32" t="d">
+      <c r="C77" s="30" t="d">
         <v>2021-11-02</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="31">
         <v>1</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C78" s="32" t="d">
+      <c r="C78" s="30" t="d">
         <v>2021-11-02</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="33">
+      <c r="F78" s="31">
         <v>0.8</v>
       </c>
-      <c r="G78" s="30" t="s">
+      <c r="G78" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C79" s="32" t="d">
+      <c r="C79" s="30" t="d">
         <v>2021-11-02</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="31">
         <v>1</v>
       </c>
-      <c r="G79" s="30" t="s">
+      <c r="G79" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C80" s="28" t="d">
+      <c r="C80" s="26" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="27">
         <v>0.1</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C81" s="28" t="d">
+      <c r="C81" s="26" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F81" s="27">
         <v>0.1</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G81" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C82" s="28" t="d">
+      <c r="C82" s="26" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="27">
         <v>0.1</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C83" s="28" t="d">
+      <c r="C83" s="26" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F83" s="27">
         <v>0.1</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C84" s="28" t="d">
+      <c r="C84" s="26" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="27">
         <v>0.1</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C85" s="32" t="d">
+      <c r="C85" s="30" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="33">
+      <c r="F85" s="31">
         <v>0.3</v>
       </c>
-      <c r="G85" s="30" t="s">
+      <c r="G85" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C86" s="32" t="d">
+      <c r="C86" s="30" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="33">
+      <c r="F86" s="31">
         <v>0.3</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C87" s="32" t="d">
+      <c r="C87" s="30" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="33">
+      <c r="F87" s="31">
         <v>0.3</v>
       </c>
-      <c r="G87" s="30" t="s">
+      <c r="G87" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C88" s="32" t="d">
+      <c r="C88" s="30" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="31">
         <v>0.3</v>
       </c>
-      <c r="G88" s="30" t="s">
+      <c r="G88" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C89" s="28" t="d">
+      <c r="C89" s="26" t="d">
         <v>2021-11-03</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F89" s="27">
         <v>1</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C90" s="34" t="d">
+      <c r="C90" s="32" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="33">
         <v>0.4</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C91" s="32" t="d">
+      <c r="C91" s="30" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="33">
+      <c r="F91" s="31">
         <v>0.4</v>
       </c>
-      <c r="G91" s="30" t="s">
+      <c r="G91" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C92" s="32" t="d">
+      <c r="C92" s="30" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F92" s="33">
+      <c r="F92" s="31">
         <v>1</v>
       </c>
-      <c r="G92" s="30" t="s">
+      <c r="G92" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C93" s="32" t="d">
+      <c r="C93" s="30" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="33">
+      <c r="F93" s="31">
         <v>1</v>
       </c>
-      <c r="G93" s="30" t="s">
+      <c r="G93" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C94" s="32" t="d">
+      <c r="C94" s="30" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F94" s="31">
         <v>1</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="G94" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C95" s="32" t="d">
+      <c r="C95" s="30" t="d">
         <v>2021-11-04</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F95" s="33">
+      <c r="F95" s="31">
         <v>1</v>
       </c>
-      <c r="G95" s="30" t="s">
+      <c r="G95" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C96" s="32" t="d">
+      <c r="C96" s="30" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E96" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="33">
+      <c r="F96" s="31">
         <v>1</v>
       </c>
-      <c r="G96" s="30" t="s">
+      <c r="G96" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C97" s="32" t="d">
+      <c r="C97" s="30" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="31">
         <v>0.3</v>
       </c>
-      <c r="G97" s="30" t="s">
+      <c r="G97" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C98" s="32" t="d">
+      <c r="C98" s="30" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="33">
+      <c r="F98" s="31">
         <v>0.1</v>
       </c>
-      <c r="G98" s="30" t="s">
+      <c r="G98" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C99" s="32" t="d">
+      <c r="C99" s="30" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="33">
+      <c r="F99" s="31">
         <v>0.1</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G99" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C100" s="32" t="d">
+      <c r="C100" s="30" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="33">
+      <c r="F100" s="31">
         <v>0.1</v>
       </c>
-      <c r="G100" s="30" t="s">
+      <c r="G100" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C101" s="32" t="d">
+      <c r="C101" s="30" t="d">
         <v>2021-11-05</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="33">
+      <c r="F101" s="31">
         <v>0.1</v>
       </c>
-      <c r="G101" s="30" t="s">
+      <c r="G101" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C102" s="44" t="d">
+      <c r="C102" s="39" t="d">
         <v>2021-11-09</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="45">
+      <c r="F102" s="40">
         <v>0.3</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C103" s="44" t="d">
+      <c r="C103" s="39" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="45">
+      <c r="F103" s="40">
         <v>0.2</v>
       </c>
-      <c r="G103" s="30" t="s">
+      <c r="G103" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C104" s="44" t="d">
+      <c r="C104" s="39" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="45">
+      <c r="F104" s="40">
         <v>0.2</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G104" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C105" s="44" t="d">
+      <c r="C105" s="39" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F105" s="45">
+      <c r="F105" s="40">
         <v>0.2</v>
       </c>
-      <c r="G105" s="30" t="s">
+      <c r="G105" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C106" s="44" t="d">
+      <c r="C106" s="39" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="45">
+      <c r="F106" s="40">
         <v>0.2</v>
       </c>
-      <c r="G106" s="30" t="s">
+      <c r="G106" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C107" s="44" t="d">
+      <c r="C107" s="39" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="45">
+      <c r="F107" s="40">
         <v>0.2</v>
       </c>
-      <c r="G107" s="30" t="s">
+      <c r="G107" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C108" s="46" t="d">
+      <c r="C108" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="D108" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="45">
+      <c r="F108" s="40">
         <v>0.5</v>
       </c>
-      <c r="G108" s="30" t="s">
+      <c r="G108" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C109" s="46" t="d">
+      <c r="C109" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F109" s="45">
+      <c r="F109" s="40">
         <v>0.4</v>
       </c>
-      <c r="G109" s="30" t="s">
+      <c r="G109" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C110" s="46" t="d">
+      <c r="C110" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="45">
+      <c r="F110" s="40">
         <v>0.4</v>
       </c>
-      <c r="G110" s="30" t="s">
+      <c r="G110" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C111" s="46" t="d">
+      <c r="C111" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F111" s="45">
+      <c r="F111" s="40">
         <v>0.4</v>
       </c>
-      <c r="G111" s="30" t="s">
+      <c r="G111" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C112" s="46" t="d">
+      <c r="C112" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="45">
+      <c r="F112" s="40">
         <v>0.4</v>
       </c>
-      <c r="G112" s="30" t="s">
+      <c r="G112" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C113" s="46" t="d">
+      <c r="C113" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="45">
+      <c r="F113" s="40">
         <v>0.8</v>
       </c>
-      <c r="G113" s="30" t="s">
+      <c r="G113" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C114" s="46" t="d">
+      <c r="C114" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F114" s="45">
+      <c r="F114" s="40">
         <v>0.3</v>
       </c>
-      <c r="G114" s="30" t="s">
+      <c r="G114" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C115" s="46" t="d">
+      <c r="C115" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="45">
+      <c r="F115" s="40">
         <v>0.3</v>
       </c>
-      <c r="G115" s="30" t="s">
+      <c r="G115" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C116" s="46" t="d">
+      <c r="C116" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="45">
+      <c r="F116" s="40">
         <v>0.8</v>
       </c>
-      <c r="G116" s="30" t="s">
+      <c r="G116" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C117" s="46" t="d">
+      <c r="C117" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F117" s="45">
+      <c r="F117" s="40">
         <v>0.9</v>
       </c>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="42" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C118" s="46" t="d">
+      <c r="C118" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="45">
+      <c r="F118" s="40">
         <v>0.4</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="G118" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C119" s="46" t="d">
+      <c r="C119" s="41" t="d">
         <v>2021-11-10</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="45">
+      <c r="F119" s="40">
         <v>0.4</v>
       </c>
-      <c r="G119" s="30" t="s">
+      <c r="G119" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C120" s="46" t="d">
+      <c r="C120" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F120" s="45">
+      <c r="F120" s="40">
         <v>0.3</v>
       </c>
-      <c r="G120" s="30" t="s">
+      <c r="G120" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C121" s="46" t="d">
+      <c r="C121" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="45">
+      <c r="F121" s="40">
         <v>0.3</v>
       </c>
-      <c r="G121" s="30" t="s">
+      <c r="G121" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C122" s="46" t="d">
+      <c r="C122" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="45">
+      <c r="F122" s="40">
         <v>1</v>
       </c>
-      <c r="G122" s="30" t="s">
+      <c r="G122" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C123" s="46" t="d">
+      <c r="C123" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F123" s="45">
+      <c r="F123" s="40">
         <v>0.9</v>
       </c>
-      <c r="G123" s="30" t="s">
+      <c r="G123" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C124" s="46" t="d">
+      <c r="C124" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="45">
+      <c r="F124" s="40">
         <v>1</v>
       </c>
-      <c r="G124" s="30" t="s">
+      <c r="G124" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C125" s="46" t="d">
+      <c r="C125" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D125" s="47" t="s">
+      <c r="D125" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E125" s="47" t="s">
+      <c r="E125" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F125" s="43">
         <v>0.5</v>
       </c>
-      <c r="G125" s="30" t="s">
+      <c r="G125" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C126" s="46" t="d">
+      <c r="C126" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="D126" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F126" s="45">
+      <c r="F126" s="40">
         <v>1</v>
       </c>
-      <c r="G126" s="30" t="s">
+      <c r="G126" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C127" s="46" t="d">
+      <c r="C127" s="41" t="d">
         <v>2021-11-11</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="E127" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="45">
+      <c r="F127" s="40">
         <v>0.2</v>
       </c>
-      <c r="G127" s="30" t="s">
+      <c r="G127" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C128" s="41" t="d">
+      <c r="C128" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="E128" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="42">
+      <c r="F128" s="40">
         <v>0.3</v>
       </c>
-      <c r="G128" s="42" t="s">
+      <c r="G128" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C129" s="41" t="d">
+      <c r="C129" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E129" s="27" t="s">
+      <c r="E129" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="42">
+      <c r="F129" s="40">
         <v>0.3</v>
       </c>
-      <c r="G129" s="42" t="s">
+      <c r="G129" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C130" s="41" t="d">
+      <c r="C130" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="27" t="s">
+      <c r="E130" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F130" s="42">
+      <c r="F130" s="40">
         <v>0.3</v>
       </c>
-      <c r="G130" s="42" t="s">
+      <c r="G130" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C131" s="41" t="d">
+      <c r="C131" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E131" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="42">
+      <c r="F131" s="40">
         <v>0.3</v>
       </c>
-      <c r="G131" s="42" t="s">
+      <c r="G131" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C132" s="41" t="d">
+      <c r="C132" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E132" s="27" t="s">
+      <c r="E132" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="42">
+      <c r="F132" s="40">
         <v>0.3</v>
       </c>
-      <c r="G132" s="42" t="s">
+      <c r="G132" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C133" s="41" t="d">
+      <c r="C133" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="27" t="s">
+      <c r="E133" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F133" s="42">
+      <c r="F133" s="40">
         <v>0.7</v>
       </c>
-      <c r="G133" s="42" t="s">
+      <c r="G133" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C134" s="41" t="d">
+      <c r="C134" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E134" s="27" t="s">
+      <c r="E134" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F134" s="42">
+      <c r="F134" s="40">
         <v>0.7</v>
       </c>
-      <c r="G134" s="42" t="s">
+      <c r="G134" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C135" s="41" t="d">
+      <c r="C135" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="27" t="s">
+      <c r="E135" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F135" s="42">
+      <c r="F135" s="40">
         <v>0.7</v>
       </c>
-      <c r="G135" s="42" t="s">
+      <c r="G135" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C136" s="41" t="d">
+      <c r="C136" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="D136" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="27" t="s">
+      <c r="E136" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F136" s="42">
+      <c r="F136" s="40">
         <v>0.7</v>
       </c>
-      <c r="G136" s="42" t="s">
+      <c r="G136" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C137" s="41" t="d">
+      <c r="C137" s="39" t="d">
         <v>2021-11-17</v>
       </c>
-      <c r="D137" s="27" t="s">
+      <c r="D137" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="27" t="s">
+      <c r="E137" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F137" s="42">
+      <c r="F137" s="40">
         <v>0.7</v>
       </c>
-      <c r="G137" s="42" t="s">
+      <c r="G137" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C138" s="41" t="d">
+      <c r="C138" s="39" t="d">
         <v>2021-11-18</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="27" t="s">
+      <c r="E138" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="42">
+      <c r="F138" s="40">
         <v>0.5</v>
       </c>
-      <c r="G138" s="42" t="s">
+      <c r="G138" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C139" s="41" t="d">
+      <c r="C139" s="39" t="d">
         <v>2021-11-18</v>
       </c>
-      <c r="D139" s="27" t="s">
+      <c r="D139" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="27" t="s">
+      <c r="E139" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="42">
+      <c r="F139" s="40">
         <v>0.5</v>
       </c>
-      <c r="G139" s="42" t="s">
+      <c r="G139" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C140" s="41" t="d">
+      <c r="C140" s="39" t="d">
         <v>2021-11-18</v>
       </c>
-      <c r="D140" s="27" t="s">
+      <c r="D140" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="27" t="s">
+      <c r="E140" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="42">
+      <c r="F140" s="40">
         <v>0.5</v>
       </c>
-      <c r="G140" s="42" t="s">
+      <c r="G140" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C141" s="41" t="d">
+      <c r="C141" s="39" t="d">
         <v>2021-11-18</v>
       </c>
-      <c r="D141" s="27" t="s">
+      <c r="D141" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="27" t="s">
+      <c r="E141" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F141" s="42">
+      <c r="F141" s="40">
         <v>0.5</v>
       </c>
-      <c r="G141" s="42" t="s">
+      <c r="G141" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C142" s="41" t="d">
+      <c r="C142" s="39" t="d">
         <v>2021-11-18</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="D142" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E142" s="27" t="s">
+      <c r="E142" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F142" s="42">
+      <c r="F142" s="40">
         <v>1</v>
       </c>
-      <c r="G142" s="42" t="s">
+      <c r="G142" s="40" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4643,16 +4668,16 @@
       <c r="C143" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D143" s="27" t="s">
+      <c r="D143" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E143" s="27" t="s">
+      <c r="E143" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F143" s="42">
+      <c r="F143" s="40">
         <v>1</v>
       </c>
-      <c r="G143" s="42" t="s">
+      <c r="G143" s="40" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4660,16 +4685,16 @@
       <c r="C144" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="27" t="s">
+      <c r="E144" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F144" s="42">
+      <c r="F144" s="40">
         <v>1</v>
       </c>
-      <c r="G144" s="42" t="s">
+      <c r="G144" s="40" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4677,16 +4702,16 @@
       <c r="C145" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D145" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="27" t="s">
+      <c r="E145" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F145" s="24">
+      <c r="F145" s="40">
         <v>0.8</v>
       </c>
-      <c r="G145" s="42" t="s">
+      <c r="G145" s="40" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4694,16 +4719,16 @@
       <c r="C146" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D146" s="27" t="s">
+      <c r="D146" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E146" s="27" t="s">
+      <c r="E146" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F146" s="24">
+      <c r="F146" s="40">
         <v>1</v>
       </c>
-      <c r="G146" s="42" t="s">
+      <c r="G146" s="40" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4711,16 +4736,16 @@
       <c r="C147" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D147" s="27" t="s">
+      <c r="D147" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="27" t="s">
+      <c r="E147" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="24">
+      <c r="F147" s="40">
         <v>0.1</v>
       </c>
-      <c r="G147" s="42" t="s">
+      <c r="G147" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4728,16 +4753,16 @@
       <c r="C148" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D148" s="27" t="s">
+      <c r="D148" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E148" s="27" t="s">
+      <c r="E148" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F148" s="24">
+      <c r="F148" s="40">
         <v>0.1</v>
       </c>
-      <c r="G148" s="42" t="s">
+      <c r="G148" s="40" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4745,320 +4770,599 @@
       <c r="C149" s="39" t="d">
         <v>2021-11-19</v>
       </c>
-      <c r="D149" s="27" t="s">
+      <c r="D149" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="24" t="s">
+      <c r="E149" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F149" s="24">
+      <c r="F149" s="40">
         <v>0.5</v>
       </c>
-      <c r="G149" s="42" t="s">
+      <c r="G149" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C150" s="50"/>
-      <c r="G150" s="49"/>
+      <c r="C150" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="G150" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C151" s="1"/>
-      <c r="G151" s="49"/>
+      <c r="C151" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="G151" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C152" s="1"/>
-      <c r="G152" s="49"/>
+      <c r="C152" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D152" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="G152" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C153" s="1"/>
-      <c r="G153" s="49"/>
+      <c r="C153" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D153" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="G153" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C154" s="1"/>
-      <c r="G154" s="49"/>
+      <c r="C154" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D154" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="G154" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C155" s="1"/>
-      <c r="G155" s="49"/>
+      <c r="C155" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="G155" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C156" s="1"/>
-      <c r="G156" s="49"/>
+      <c r="C156" s="46" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="G156" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C157" s="1"/>
-      <c r="G157" s="49"/>
+      <c r="C157" s="50" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D157" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="G157" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C158" s="1"/>
-      <c r="G158" s="49"/>
+      <c r="C158" s="50" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D158" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="G158" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C159" s="1"/>
-      <c r="G159" s="49"/>
+      <c r="C159" s="50" t="d">
+        <v>2021-11-24</v>
+      </c>
+      <c r="D159" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="G159" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C160" s="1"/>
-      <c r="G160" s="49"/>
+      <c r="C160" s="50" t="d">
+        <v>2021-11-25</v>
+      </c>
+      <c r="D160" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" s="51">
+        <v>1</v>
+      </c>
+      <c r="G160" s="49" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C161" s="1"/>
-      <c r="G161" s="49"/>
+      <c r="C161" s="50" t="d">
+        <v>2021-11-25</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="52">
+        <v>1</v>
+      </c>
+      <c r="G161" s="49" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C162" s="1"/>
-      <c r="G162" s="49"/>
+      <c r="C162" s="50" t="d">
+        <v>2021-11-25</v>
+      </c>
+      <c r="D162" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" s="51">
+        <v>1</v>
+      </c>
+      <c r="G162" s="49" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C163" s="1"/>
-      <c r="G163" s="49"/>
+      <c r="C163" s="50" t="d">
+        <v>2021-11-25</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" s="51">
+        <v>1</v>
+      </c>
+      <c r="G163" s="49" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C164" s="1"/>
-      <c r="G164" s="49"/>
+      <c r="C164" s="50" t="d">
+        <v>2021-11-25</v>
+      </c>
+      <c r="D164" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G164" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C165" s="1"/>
-      <c r="G165" s="49"/>
+      <c r="C165" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D165" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G165" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C166" s="1"/>
-      <c r="G166" s="49"/>
+      <c r="C166" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D166" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G166" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C167" s="1"/>
-      <c r="G167" s="49"/>
+      <c r="C167" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D167" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G167" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C168" s="1"/>
-      <c r="G168" s="49"/>
+      <c r="C168" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D168" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="G168" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C169" s="1"/>
-      <c r="G169" s="49"/>
+      <c r="C169" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D169" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="G169" s="49" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C170" s="1"/>
-      <c r="G170" s="49"/>
+      <c r="C170" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D170" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="G170" s="49" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C171" s="1"/>
-      <c r="G171" s="49"/>
-    </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C172" s="1"/>
-      <c r="G172" s="49"/>
+      <c r="C171" s="50" t="d">
+        <v>2021-11-26</v>
+      </c>
+      <c r="D171" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="G171" s="49" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C173" s="1"/>
-      <c r="G173" s="49"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C174" s="1"/>
-      <c r="G174" s="49"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="45"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C175" s="1"/>
-      <c r="G175" s="49"/>
+      <c r="C175" s="44"/>
+      <c r="D175" s="45"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C176" s="1"/>
-      <c r="G176" s="49"/>
-    </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C177" s="1"/>
-      <c r="G177" s="49"/>
-    </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C178" s="1"/>
-      <c r="G178" s="49"/>
-    </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C179" s="1"/>
-      <c r="G179" s="49"/>
+      <c r="G176" s="44"/>
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C180" s="1"/>
-      <c r="G180" s="49"/>
+      <c r="G180" s="44"/>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C181" s="1"/>
-      <c r="G181" s="49"/>
+      <c r="G181" s="44"/>
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C182" s="1"/>
-      <c r="G182" s="49"/>
+      <c r="G182" s="44"/>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C183" s="1"/>
-      <c r="G183" s="49"/>
+      <c r="G183" s="44"/>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C184" s="1"/>
-      <c r="G184" s="49"/>
+      <c r="G184" s="44"/>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C185" s="1"/>
-      <c r="G185" s="49"/>
+      <c r="G185" s="44"/>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C186" s="1"/>
-      <c r="G186" s="49"/>
+      <c r="G186" s="44"/>
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C187" s="1"/>
-      <c r="G187" s="49"/>
+      <c r="G187" s="44"/>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C188" s="1"/>
-      <c r="G188" s="49"/>
+      <c r="G188" s="44"/>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C189" s="1"/>
-      <c r="G189" s="49"/>
+      <c r="G189" s="44"/>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C190" s="1"/>
-      <c r="G190" s="49"/>
+      <c r="G190" s="44"/>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C191" s="1"/>
-      <c r="G191" s="49"/>
+      <c r="G191" s="44"/>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C192" s="1"/>
-      <c r="G192" s="49"/>
+      <c r="G192" s="44"/>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C193" s="1"/>
-      <c r="G193" s="49"/>
+      <c r="G193" s="44"/>
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C194" s="1"/>
-      <c r="G194" s="49"/>
+      <c r="G194" s="44"/>
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C195" s="1"/>
-      <c r="G195" s="49"/>
+      <c r="G195" s="44"/>
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C196" s="1"/>
-      <c r="G196" s="49"/>
+      <c r="G196" s="44"/>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C197" s="1"/>
-      <c r="G197" s="49"/>
+      <c r="G197" s="44"/>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C198" s="1"/>
-      <c r="G198" s="49"/>
+      <c r="G198" s="44"/>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C199" s="1"/>
-      <c r="G199" s="49"/>
+      <c r="G199" s="44"/>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C200" s="1"/>
-      <c r="G200" s="49"/>
+      <c r="G200" s="44"/>
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C201" s="1"/>
-      <c r="G201" s="49"/>
+      <c r="G201" s="44"/>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C202" s="1"/>
-      <c r="G202" s="49"/>
+      <c r="G202" s="44"/>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C203" s="1"/>
-      <c r="G203" s="49"/>
+      <c r="G203" s="44"/>
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C204" s="1"/>
-      <c r="G204" s="49"/>
+      <c r="G204" s="44"/>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C205" s="1"/>
-      <c r="G205" s="49"/>
+      <c r="G205" s="44"/>
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C206" s="1"/>
-      <c r="G206" s="49"/>
+      <c r="G206" s="44"/>
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C207" s="1"/>
-      <c r="G207" s="49"/>
+      <c r="G207" s="44"/>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C208" s="1"/>
-      <c r="G208" s="49"/>
+      <c r="G208" s="44"/>
     </row>
     <row r="209" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C209" s="1"/>
-      <c r="G209" s="49"/>
+      <c r="G209" s="44"/>
     </row>
     <row r="210" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C210" s="1"/>
-      <c r="G210" s="49"/>
+      <c r="G210" s="44"/>
     </row>
     <row r="211" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C211" s="1"/>
-      <c r="G211" s="49"/>
+      <c r="G211" s="44"/>
     </row>
     <row r="212" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C212" s="1"/>
-      <c r="G212" s="49"/>
+      <c r="G212" s="44"/>
     </row>
     <row r="213" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C213" s="1"/>
-      <c r="G213" s="49"/>
+      <c r="G213" s="44"/>
     </row>
     <row r="214" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C214" s="1"/>
-      <c r="G214" s="49"/>
+      <c r="G214" s="44"/>
     </row>
     <row r="215" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C215" s="1"/>
-      <c r="G215" s="49"/>
+      <c r="G215" s="44"/>
     </row>
     <row r="216" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C216" s="1"/>
-      <c r="G216" s="49"/>
+      <c r="G216" s="44"/>
     </row>
     <row r="217" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C217" s="1"/>
-      <c r="G217" s="49"/>
+      <c r="G217" s="44"/>
     </row>
     <row r="218" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C218" s="1"/>
-      <c r="G218" s="49"/>
+      <c r="G218" s="44"/>
     </row>
     <row r="219" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C219" s="1"/>
-      <c r="G219" s="49"/>
+      <c r="G219" s="44"/>
     </row>
     <row r="220" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C220" s="1"/>
-      <c r="G220" s="49"/>
+      <c r="G220" s="44"/>
     </row>
     <row r="221" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C221" s="40"/>
+      <c r="C221" s="37"/>
     </row>
     <row r="222" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C222" s="40"/>
+      <c r="C222" s="37"/>
     </row>
     <row r="223" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C223" s="40"/>
+      <c r="C223" s="37"/>
     </row>
     <row r="224" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C224" s="40"/>
+      <c r="C224" s="37"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C225" s="40"/>
+      <c r="C225" s="37"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C226" s="40"/>
+      <c r="C226" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -5072,10 +5376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5090,10 +5394,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5162,13 +5466,15 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.2</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -5176,95 +5482,67 @@
         <v>21</v>
       </c>
       <c r="B7" s="15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
       <c r="G7" s="17">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="15">
+        <v>1.2</v>
+      </c>
       <c r="C8" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="D8" s="16"/>
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
       <c r="E8" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="16"/>
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.2</v>
+      </c>
       <c r="G8" s="17">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B9" s="19">
         <v>2.5</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C9" s="20">
         <v>2.5</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D9" s="20">
         <v>2.5</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E9" s="20">
         <v>2.5</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F9" s="20">
         <v>2.5</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G9" s="21">
         <v>12.5</v>
       </c>
     </row>

--- a/project_management/project_tracking_gnlg2.xlsx
+++ b/project_management/project_tracking_gnlg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/repositories/GNLG2/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5756B8B9-8C8A-8C47-B121-1BAB590B5C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B15C93E8-A941-BA45-B455-F3B8C8610AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId3"/>
+    <pivotCache cacheId="36" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="469" uniqueCount="77">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="536" uniqueCount="81">
   <si>
     <t>CM</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>Laravel development</t>
+  </si>
+  <si>
+    <t>Working IRL</t>
+  </si>
+  <si>
+    <t>Occupied by intership applications</t>
+  </si>
+  <si>
+    <t>Occupied by urgent projects</t>
+  </si>
+  <si>
+    <t>Project Tracking finishing touches</t>
   </si>
 </sst>
 </file>
@@ -673,7 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,26 +771,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -823,13 +843,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-11-26T16:52:48.529999698512255850" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="188" xr:uid="{33C243A7-C20F-9A41-84D4-AFCEDFA037F4}">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-12-05T15:41:56.29999999422579900" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="188" xr:uid="{33C243A7-C20F-9A41-84D4-AFCEDFA037F4}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C34:G222" sheet="Tab"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-11-27T00:00:00" count="19">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-12-06T00:00:00" count="23">
         <d v="2021-10-22T00:00:00"/>
         <d v="2021-10-27T00:00:00"/>
         <d v="2021-10-28T00:00:00"/>
@@ -848,6 +868,10 @@
         <d v="2021-11-24T00:00:00"/>
         <d v="2021-11-25T00:00:00"/>
         <d v="2021-11-26T00:00:00"/>
+        <d v="2021-11-28T00:00:00"/>
+        <d v="2021-12-01T00:00:00"/>
+        <d v="2021-12-03T00:00:00"/>
+        <d v="2021-12-05T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1854,370 +1878,370 @@
   </r>
   <r>
     <x v="18"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.4"/>
+    <s v="Laravel development"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.7"/>
+    <s v="Update the team on laravel project + development"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Occupied by IRL complications"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Working IRL"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Occupied by intership applications"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <s v="Occupied by intership applications"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="0.9"/>
+    <s v="Occupied by urgent projects"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.1"/>
+    <s v="Project Tracking"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.1"/>
+    <s v="Project Tracking finishing touches"/>
+  </r>
+  <r>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="22"/>
     <x v="5"/>
     <x v="9"/>
     <m/>
     <m/>
   </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56ABA1B9-0D18-E44D-8AA9-6D65D511342F}" name="DataPilot1" cacheId="70" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
-  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56ABA1B9-0D18-E44D-8AA9-6D65D511342F}" name="DataPilot1" cacheId="36" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="20">
+      <items count="24">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
@@ -2226,7 +2250,7 @@
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="8"/>
-        <item h="1" x="18"/>
+        <item h="1" x="22"/>
         <item h="1" x="5"/>
         <item h="1" x="10"/>
         <item h="1" x="11"/>
@@ -2234,9 +2258,13 @@
         <item h="1" x="12"/>
         <item h="1" x="13"/>
         <item h="1" x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2271,7 +2299,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -2283,6 +2311,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -2625,8 +2656,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4784,13 +4815,13 @@
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C150" s="46" t="d">
+      <c r="C150" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D150" s="47" t="s">
+      <c r="D150" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="48" t="s">
+      <c r="E150" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F150" s="49">
@@ -4801,13 +4832,13 @@
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C151" s="46" t="d">
+      <c r="C151" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D151" s="47" t="s">
+      <c r="D151" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="47" t="s">
+      <c r="E151" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F151" s="49">
@@ -4818,13 +4849,13 @@
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C152" s="46" t="d">
+      <c r="C152" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D152" s="47" t="s">
+      <c r="D152" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E152" s="47" t="s">
+      <c r="E152" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F152" s="49">
@@ -4835,13 +4866,13 @@
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C153" s="46" t="d">
+      <c r="C153" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D153" s="47" t="s">
+      <c r="D153" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="47" t="s">
+      <c r="E153" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F153" s="49">
@@ -4852,13 +4883,13 @@
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C154" s="46" t="d">
+      <c r="C154" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D154" s="47" t="s">
+      <c r="D154" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E154" s="47" t="s">
+      <c r="E154" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F154" s="49">
@@ -4869,13 +4900,13 @@
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C155" s="46" t="d">
+      <c r="C155" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D155" s="47" t="s">
+      <c r="D155" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E155" s="47" t="s">
+      <c r="E155" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="49">
@@ -4886,13 +4917,13 @@
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C156" s="46" t="d">
+      <c r="C156" s="48" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D156" s="47" t="s">
+      <c r="D156" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="47" t="s">
+      <c r="E156" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="49">
@@ -4906,10 +4937,10 @@
       <c r="C157" s="50" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D157" s="47" t="s">
+      <c r="D157" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E157" s="47" t="s">
+      <c r="E157" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="51">
@@ -4923,10 +4954,10 @@
       <c r="C158" s="50" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D158" s="47" t="s">
+      <c r="D158" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E158" s="47" t="s">
+      <c r="E158" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="51">
@@ -4940,10 +4971,10 @@
       <c r="C159" s="50" t="d">
         <v>2021-11-24</v>
       </c>
-      <c r="D159" s="47" t="s">
+      <c r="D159" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="47" t="s">
+      <c r="E159" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F159" s="51">
@@ -4957,7 +4988,7 @@
       <c r="C160" s="50" t="d">
         <v>2021-11-25</v>
       </c>
-      <c r="D160" s="47" t="s">
+      <c r="D160" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="51" t="s">
@@ -4974,13 +5005,13 @@
       <c r="C161" s="50" t="d">
         <v>2021-11-25</v>
       </c>
-      <c r="D161" s="47" t="s">
+      <c r="D161" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E161" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="52">
+      <c r="F161" s="49">
         <v>1</v>
       </c>
       <c r="G161" s="49" t="s">
@@ -4991,7 +5022,7 @@
       <c r="C162" s="50" t="d">
         <v>2021-11-25</v>
       </c>
-      <c r="D162" s="47" t="s">
+      <c r="D162" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E162" s="51" t="s">
@@ -5008,7 +5039,7 @@
       <c r="C163" s="50" t="d">
         <v>2021-11-25</v>
       </c>
-      <c r="D163" s="47" t="s">
+      <c r="D163" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="51" t="s">
@@ -5042,7 +5073,7 @@
       <c r="C165" s="50" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D165" s="47" t="s">
+      <c r="D165" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E165" s="51" t="s">
@@ -5059,7 +5090,7 @@
       <c r="C166" s="50" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D166" s="47" t="s">
+      <c r="D166" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E166" s="51" t="s">
@@ -5076,7 +5107,7 @@
       <c r="C167" s="50" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D167" s="47" t="s">
+      <c r="D167" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E167" s="51" t="s">
@@ -5093,7 +5124,7 @@
       <c r="C168" s="50" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D168" s="47" t="s">
+      <c r="D168" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E168" s="51" t="s">
@@ -5157,102 +5188,379 @@
         <v>73</v>
       </c>
     </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C172" s="52" t="d">
+        <v>2021-11-28</v>
+      </c>
+      <c r="D172" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G172" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C173" s="44"/>
-      <c r="D173" s="45"/>
-      <c r="E173" s="45"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="44"/>
+      <c r="C173" s="52" t="d">
+        <v>2021-11-28</v>
+      </c>
+      <c r="D173" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G173" s="47" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C174" s="44"/>
-      <c r="D174" s="45"/>
-      <c r="E174" s="45"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="44"/>
+      <c r="C174" s="52" t="d">
+        <v>2021-11-28</v>
+      </c>
+      <c r="D174" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G174" s="47" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C175" s="44"/>
-      <c r="D175" s="45"/>
-      <c r="E175" s="45"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="44"/>
+      <c r="C175" s="52" t="d">
+        <v>2021-11-28</v>
+      </c>
+      <c r="D175" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G175" s="47" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C176" s="1"/>
-      <c r="G176" s="44"/>
+      <c r="C176" s="52" t="d">
+        <v>2021-11-28</v>
+      </c>
+      <c r="D176" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="G176" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C177" s="54" t="d">
+        <v>2021-12-01</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="G177" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C178" s="54" t="d">
+        <v>2021-12-01</v>
+      </c>
+      <c r="D178" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="G178" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C179" s="54" t="d">
+        <v>2021-12-01</v>
+      </c>
+      <c r="D179" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="G179" s="47" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C180" s="1"/>
-      <c r="G180" s="44"/>
+      <c r="C180" s="54" t="d">
+        <v>2021-12-01</v>
+      </c>
+      <c r="D180" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="G180" s="47" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C181" s="1"/>
-      <c r="G181" s="44"/>
+      <c r="C181" s="54" t="d">
+        <v>2021-12-01</v>
+      </c>
+      <c r="D181" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="G181" s="47" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C182" s="1"/>
-      <c r="G182" s="44"/>
+      <c r="C182" s="52" t="d">
+        <v>2021-12-03</v>
+      </c>
+      <c r="D182" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G182" s="47" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C183" s="1"/>
-      <c r="G183" s="44"/>
+      <c r="C183" s="52" t="d">
+        <v>2021-12-03</v>
+      </c>
+      <c r="D183" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G183" s="47" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C184" s="1"/>
-      <c r="G184" s="44"/>
+      <c r="C184" s="52" t="d">
+        <v>2021-12-03</v>
+      </c>
+      <c r="D184" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G184" s="47" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C185" s="1"/>
-      <c r="G185" s="44"/>
+      <c r="C185" s="52" t="d">
+        <v>2021-12-03</v>
+      </c>
+      <c r="D185" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G185" s="47" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C186" s="1"/>
-      <c r="G186" s="44"/>
+      <c r="C186" s="52" t="d">
+        <v>2021-12-03</v>
+      </c>
+      <c r="D186" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G186" s="47" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C187" s="1"/>
-      <c r="G187" s="44"/>
+      <c r="C187" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D187" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" s="53">
+        <v>1</v>
+      </c>
+      <c r="G187" s="47" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C188" s="1"/>
-      <c r="G188" s="44"/>
+      <c r="C188" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D188" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" s="47">
+        <v>1</v>
+      </c>
+      <c r="G188" s="47" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C189" s="1"/>
-      <c r="G189" s="44"/>
+      <c r="C189" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D189" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" s="53">
+        <v>1</v>
+      </c>
+      <c r="G189" s="47" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C190" s="1"/>
-      <c r="G190" s="44"/>
+      <c r="C190" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D190" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" s="53">
+        <v>1</v>
+      </c>
+      <c r="G190" s="47" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C191" s="1"/>
-      <c r="G191" s="44"/>
+      <c r="C191" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D191" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F191" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="G191" s="46" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C192" s="1"/>
-      <c r="G192" s="44"/>
+      <c r="C192" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D192" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G192" s="47" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C193" s="1"/>
-      <c r="G193" s="44"/>
-    </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C194" s="1"/>
-      <c r="G194" s="44"/>
-    </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C195" s="1"/>
-      <c r="G195" s="44"/>
-    </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C196" s="1"/>
-      <c r="G196" s="44"/>
-    </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C197" s="1"/>
-      <c r="G197" s="44"/>
+      <c r="C193" s="52" t="d">
+        <v>2021-12-05</v>
+      </c>
+      <c r="D193" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="G193" s="46" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C198" s="1"/>
@@ -5376,10 +5684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5466,15 +5774,15 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -5484,9 +5792,7 @@
       <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="16">
         <v>1</v>
       </c>
@@ -5497,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -5511,7 +5817,7 @@
         <v>1.2</v>
       </c>
       <c r="D8" s="16">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="16">
         <v>1.2</v>
@@ -5520,30 +5826,45 @@
         <v>1.2</v>
       </c>
       <c r="G8" s="17">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B10" s="19">
         <v>2.5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C10" s="20">
         <v>2.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D10" s="20">
         <v>2.5</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E10" s="20">
         <v>2.5</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F10" s="20">
         <v>2.5</v>
       </c>
-      <c r="G9" s="21">
-        <v>12.5</v>
+      <c r="G10" s="21">
+        <v>12.500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/project_management/project_tracking_gnlg2.xlsx
+++ b/project_management/project_tracking_gnlg2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr dateCompatibility="0" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/repositories/GNLG2/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{946DCF23-30A3-FD43-8570-E0A5163A80F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96357A3E-4C20-FD4F-A66B-7D7E315670F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="614" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="677" uniqueCount="87">
   <si>
     <t>CM</t>
   </si>
@@ -282,6 +282,15 @@
   <si>
     <t>(Multiple Items)</t>
   </si>
+  <si>
+    <t>Developement of Birth page</t>
+  </si>
+  <si>
+    <t>Developement of User Management pages</t>
+  </si>
+  <si>
+    <t>Developement of Authentification page</t>
+  </si>
 </sst>
 </file>
 
@@ -479,13 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +709,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,15 +773,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,32 +785,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -830,6 +818,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -872,13 +884,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-12-09T21:56:01.1300000455230450" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="187" xr:uid="{752DE5DF-3E4F-394D-89AE-EECA859BBFDE}">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDateIso="2021-12-17T18:19:11.27999999094754125" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="575" xr:uid="{752DE5DF-3E4F-394D-89AE-EECA859BBFDE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C34:G785" sheet="Tab"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-12-10T00:00:00" count="27">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-22T00:00:00" maxDate="2021-12-18T00:00:00" count="33">
         <d v="2021-10-22T00:00:00"/>
         <d v="2021-10-27T00:00:00"/>
         <d v="2021-10-28T00:00:00"/>
@@ -905,6 +917,12 @@
         <d v="2021-12-07T00:00:00"/>
         <d v="2021-12-08T00:00:00"/>
         <d v="2021-12-09T00:00:00"/>
+        <d v="2021-12-10T00:00:00"/>
+        <d v="2021-12-11T00:00:00"/>
+        <d v="2021-12-12T00:00:00"/>
+        <d v="2021-12-15T00:00:00"/>
+        <d v="2021-12-16T00:00:00"/>
+        <d v="2021-12-17T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -949,7 +967,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="187">
+<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="575">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2247,13 +2265,2729 @@
   </r>
   <r>
     <x v="26"/>
-    <x v="5"/>
-    <x v="10"/>
-    <m/>
-    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of Birth page"/>
   </r>
   <r>
     <x v="26"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of Birth page"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of User Management pages"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of User Management pages"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of Birth page"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of Birth page"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of Authentification page"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of User Management pages"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of User Management pages"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <s v="Developement of Birth page"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0.1"/>
+    <s v="Sick"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="Metting with M. Oudot"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <s v="Workbook redaction"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.4"/>
+    <s v="Developement of Authentification page"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.4"/>
+    <s v="Developement of User Management pages"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.4"/>
+    <s v="Developement of User Management pages"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.1"/>
+    <s v="Project Tracking"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="32"/>
     <x v="5"/>
     <x v="10"/>
     <m/>
@@ -2263,11 +4997,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EA02DFB-8242-6446-B97B-5A553FD5C920}" name="DataPilot1" cacheId="34" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EA02DFB-8242-6446-B97B-5A553FD5C920}" name="DataPilot1" cacheId="20" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" enableDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="28">
+      <items count="34">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
@@ -2290,11 +5024,17 @@
         <item h="1" x="19"/>
         <item h="1" x="20"/>
         <item h="1" x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item h="1" x="26"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="32"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2343,7 +5083,7 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -2684,10 +5424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M219"/>
+  <dimension ref="A2:M608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C193" zoomScale="156" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4845,7 +7585,7 @@
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C150" s="28" t="d">
+      <c r="C150" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -4854,15 +7594,15 @@
       <c r="E150" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F150" s="29">
+      <c r="F150" s="26">
         <v>0.3</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G150" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C151" s="28" t="d">
+      <c r="C151" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D151" s="10" t="s">
@@ -4871,15 +7611,15 @@
       <c r="E151" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F151" s="29">
+      <c r="F151" s="26">
         <v>0.3</v>
       </c>
-      <c r="G151" s="29" t="s">
+      <c r="G151" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C152" s="28" t="d">
+      <c r="C152" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D152" s="10" t="s">
@@ -4888,15 +7628,15 @@
       <c r="E152" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F152" s="29">
+      <c r="F152" s="26">
         <v>0.3</v>
       </c>
-      <c r="G152" s="29" t="s">
+      <c r="G152" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C153" s="28" t="d">
+      <c r="C153" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D153" s="10" t="s">
@@ -4905,15 +7645,15 @@
       <c r="E153" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F153" s="29">
+      <c r="F153" s="26">
         <v>0.3</v>
       </c>
-      <c r="G153" s="29" t="s">
+      <c r="G153" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C154" s="28" t="d">
+      <c r="C154" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -4922,15 +7662,15 @@
       <c r="E154" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F154" s="29">
+      <c r="F154" s="26">
         <v>0.3</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G154" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C155" s="28" t="d">
+      <c r="C155" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D155" s="10" t="s">
@@ -4939,15 +7679,15 @@
       <c r="E155" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F155" s="29">
+      <c r="F155" s="26">
         <v>0.7</v>
       </c>
-      <c r="G155" s="29" t="s">
+      <c r="G155" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C156" s="28" t="d">
+      <c r="C156" s="25" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D156" s="10" t="s">
@@ -4956,15 +7696,15 @@
       <c r="E156" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F156" s="29">
+      <c r="F156" s="26">
         <v>0.7</v>
       </c>
-      <c r="G156" s="29" t="s">
+      <c r="G156" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C157" s="30" t="d">
+      <c r="C157" s="27" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D157" s="10" t="s">
@@ -4973,15 +7713,15 @@
       <c r="E157" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="31">
+      <c r="F157" s="28">
         <v>0.7</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G157" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C158" s="30" t="d">
+      <c r="C158" s="27" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D158" s="10" t="s">
@@ -4990,15 +7730,15 @@
       <c r="E158" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="31">
+      <c r="F158" s="28">
         <v>0.7</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G158" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C159" s="30" t="d">
+      <c r="C159" s="27" t="d">
         <v>2021-11-24</v>
       </c>
       <c r="D159" s="10" t="s">
@@ -5007,687 +7747,687 @@
       <c r="E159" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F159" s="31">
+      <c r="F159" s="28">
         <v>0.7</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G159" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C160" s="30" t="d">
+      <c r="C160" s="27" t="d">
         <v>2021-11-25</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="31" t="s">
+      <c r="E160" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F160" s="31">
+      <c r="F160" s="28">
         <v>1</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G160" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C161" s="30" t="d">
+      <c r="C161" s="27" t="d">
         <v>2021-11-25</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E161" s="31" t="s">
+      <c r="E161" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="29">
+      <c r="F161" s="26">
         <v>1</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="G161" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C162" s="30" t="d">
+      <c r="C162" s="27" t="d">
         <v>2021-11-25</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="31" t="s">
+      <c r="E162" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="31">
+      <c r="F162" s="28">
         <v>1</v>
       </c>
-      <c r="G162" s="29" t="s">
+      <c r="G162" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C163" s="30" t="d">
+      <c r="C163" s="27" t="d">
         <v>2021-11-25</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="31" t="s">
+      <c r="E163" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F163" s="31">
+      <c r="F163" s="28">
         <v>1</v>
       </c>
-      <c r="G163" s="29" t="s">
+      <c r="G163" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C164" s="30" t="d">
+      <c r="C164" s="27" t="d">
         <v>2021-11-25</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="31" t="s">
+      <c r="E164" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F164" s="31">
+      <c r="F164" s="28">
         <v>0.5</v>
       </c>
-      <c r="G164" s="29" t="s">
+      <c r="G164" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C165" s="30" t="d">
+      <c r="C165" s="27" t="d">
         <v>2021-11-26</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E165" s="31" t="s">
+      <c r="E165" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F165" s="31">
+      <c r="F165" s="28">
         <v>0.5</v>
       </c>
-      <c r="G165" s="29" t="s">
+      <c r="G165" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C166" s="30" t="d">
+      <c r="C166" s="27" t="d">
         <v>2021-11-26</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E166" s="31" t="s">
+      <c r="E166" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F166" s="31">
+      <c r="F166" s="28">
         <v>0.5</v>
       </c>
-      <c r="G166" s="29" t="s">
+      <c r="G166" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C167" s="30" t="d">
+      <c r="C167" s="27" t="d">
         <v>2021-11-26</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="31" t="s">
+      <c r="E167" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="31">
+      <c r="F167" s="28">
         <v>0.5</v>
       </c>
-      <c r="G167" s="29" t="s">
+      <c r="G167" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C168" s="30" t="d">
+      <c r="C168" s="27" t="d">
         <v>2021-11-26</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="31" t="s">
+      <c r="E168" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F168" s="31">
+      <c r="F168" s="28">
         <v>0.3</v>
       </c>
-      <c r="G168" s="29" t="s">
+      <c r="G168" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C169" s="30" t="d">
+      <c r="C169" s="27" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E169" s="31" t="s">
+      <c r="E169" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F169" s="31">
+      <c r="F169" s="28">
         <v>0.8</v>
       </c>
-      <c r="G169" s="29" t="s">
+      <c r="G169" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C170" s="30" t="d">
+      <c r="C170" s="27" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="E170" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F170" s="31">
+      <c r="F170" s="28">
         <v>0.2</v>
       </c>
-      <c r="G170" s="29" t="s">
+      <c r="G170" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C171" s="30" t="d">
+      <c r="C171" s="27" t="d">
         <v>2021-11-26</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="D171" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="31" t="s">
+      <c r="E171" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="31">
+      <c r="F171" s="28">
         <v>0.2</v>
       </c>
-      <c r="G171" s="29" t="s">
+      <c r="G171" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C172" s="34" t="d">
+      <c r="C172" s="29" t="d">
         <v>2021-11-28</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="D172" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E172" s="35" t="s">
+      <c r="E172" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F172" s="35">
+      <c r="F172" s="30">
         <v>0.5</v>
       </c>
-      <c r="G172" s="36" t="s">
+      <c r="G172" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C173" s="34" t="d">
+      <c r="C173" s="29" t="d">
         <v>2021-11-28</v>
       </c>
-      <c r="D173" s="37" t="s">
+      <c r="D173" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E173" s="35" t="s">
+      <c r="E173" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F173" s="35">
+      <c r="F173" s="30">
         <v>0.5</v>
       </c>
-      <c r="G173" s="36" t="s">
+      <c r="G173" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C174" s="34" t="d">
+      <c r="C174" s="29" t="d">
         <v>2021-11-28</v>
       </c>
-      <c r="D174" s="37" t="s">
+      <c r="D174" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="35" t="s">
+      <c r="E174" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F174" s="35">
+      <c r="F174" s="30">
         <v>0.5</v>
       </c>
-      <c r="G174" s="36" t="s">
+      <c r="G174" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C175" s="34" t="d">
+      <c r="C175" s="29" t="d">
         <v>2021-11-28</v>
       </c>
-      <c r="D175" s="37" t="s">
+      <c r="D175" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E175" s="35" t="s">
+      <c r="E175" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F175" s="35">
+      <c r="F175" s="30">
         <v>0.5</v>
       </c>
-      <c r="G175" s="36" t="s">
+      <c r="G175" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C176" s="34" t="d">
+      <c r="C176" s="29" t="d">
         <v>2021-11-28</v>
       </c>
-      <c r="D176" s="37" t="s">
+      <c r="D176" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="35" t="s">
+      <c r="E176" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F176" s="35">
+      <c r="F176" s="30">
         <v>0.4</v>
       </c>
-      <c r="G176" s="36" t="s">
+      <c r="G176" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C177" s="38" t="d">
+      <c r="C177" s="33" t="d">
         <v>2021-12-01</v>
       </c>
-      <c r="D177" s="37" t="s">
+      <c r="D177" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="37" t="s">
+      <c r="E177" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F177" s="36">
+      <c r="F177" s="31">
         <v>0.7</v>
       </c>
-      <c r="G177" s="36" t="s">
+      <c r="G177" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C178" s="38" t="d">
+      <c r="C178" s="33" t="d">
         <v>2021-12-01</v>
       </c>
-      <c r="D178" s="37" t="s">
+      <c r="D178" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="37" t="s">
+      <c r="E178" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F178" s="36">
+      <c r="F178" s="31">
         <v>0.7</v>
       </c>
-      <c r="G178" s="36" t="s">
+      <c r="G178" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="179" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C179" s="38" t="d">
+      <c r="C179" s="33" t="d">
         <v>2021-12-01</v>
       </c>
-      <c r="D179" s="37" t="s">
+      <c r="D179" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E179" s="37" t="s">
+      <c r="E179" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F179" s="35">
+      <c r="F179" s="30">
         <v>0.7</v>
       </c>
-      <c r="G179" s="36" t="s">
+      <c r="G179" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C180" s="38" t="d">
+      <c r="C180" s="33" t="d">
         <v>2021-12-01</v>
       </c>
-      <c r="D180" s="37" t="s">
+      <c r="D180" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E180" s="37" t="s">
+      <c r="E180" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F180" s="35">
+      <c r="F180" s="30">
         <v>0.7</v>
       </c>
-      <c r="G180" s="36" t="s">
+      <c r="G180" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C181" s="38" t="d">
+      <c r="C181" s="33" t="d">
         <v>2021-12-01</v>
       </c>
-      <c r="D181" s="37" t="s">
+      <c r="D181" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E181" s="37" t="s">
+      <c r="E181" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F181" s="35">
+      <c r="F181" s="30">
         <v>0.7</v>
       </c>
-      <c r="G181" s="36" t="s">
+      <c r="G181" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C182" s="34" t="d">
+      <c r="C182" s="29" t="d">
         <v>2021-12-03</v>
       </c>
-      <c r="D182" s="37" t="s">
+      <c r="D182" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E182" s="37" t="s">
+      <c r="E182" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F182" s="36">
+      <c r="F182" s="31">
         <v>0.3</v>
       </c>
-      <c r="G182" s="36" t="s">
+      <c r="G182" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C183" s="34" t="d">
+      <c r="C183" s="29" t="d">
         <v>2021-12-03</v>
       </c>
-      <c r="D183" s="37" t="s">
+      <c r="D183" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E183" s="37" t="s">
+      <c r="E183" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F183" s="36">
+      <c r="F183" s="31">
         <v>0.3</v>
       </c>
-      <c r="G183" s="36" t="s">
+      <c r="G183" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C184" s="34" t="d">
+      <c r="C184" s="29" t="d">
         <v>2021-12-03</v>
       </c>
-      <c r="D184" s="37" t="s">
+      <c r="D184" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="37" t="s">
+      <c r="E184" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F184" s="36">
+      <c r="F184" s="31">
         <v>0.3</v>
       </c>
-      <c r="G184" s="36" t="s">
+      <c r="G184" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C185" s="34" t="d">
+      <c r="C185" s="29" t="d">
         <v>2021-12-03</v>
       </c>
-      <c r="D185" s="37" t="s">
+      <c r="D185" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E185" s="37" t="s">
+      <c r="E185" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F185" s="36">
+      <c r="F185" s="31">
         <v>0.3</v>
       </c>
-      <c r="G185" s="36" t="s">
+      <c r="G185" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C186" s="34" t="d">
+      <c r="C186" s="29" t="d">
         <v>2021-12-03</v>
       </c>
-      <c r="D186" s="37" t="s">
+      <c r="D186" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E186" s="37" t="s">
+      <c r="E186" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F186" s="36">
+      <c r="F186" s="31">
         <v>0.3</v>
       </c>
-      <c r="G186" s="36" t="s">
+      <c r="G186" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C187" s="34" t="d">
+      <c r="C187" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D187" s="37" t="s">
+      <c r="D187" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E187" s="35" t="s">
+      <c r="E187" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F187" s="35">
+      <c r="F187" s="30">
         <v>1</v>
       </c>
-      <c r="G187" s="36" t="s">
+      <c r="G187" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C188" s="34" t="d">
+      <c r="C188" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D188" s="37" t="s">
+      <c r="D188" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E188" s="35" t="s">
+      <c r="E188" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F188" s="36">
+      <c r="F188" s="31">
         <v>1</v>
       </c>
-      <c r="G188" s="36" t="s">
+      <c r="G188" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C189" s="34" t="d">
+      <c r="C189" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D189" s="37" t="s">
+      <c r="D189" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E189" s="35" t="s">
+      <c r="E189" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F189" s="35">
+      <c r="F189" s="30">
         <v>1</v>
       </c>
-      <c r="G189" s="36" t="s">
+      <c r="G189" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C190" s="34" t="d">
+      <c r="C190" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D190" s="37" t="s">
+      <c r="D190" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E190" s="35" t="s">
+      <c r="E190" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F190" s="35">
+      <c r="F190" s="30">
         <v>1</v>
       </c>
-      <c r="G190" s="36" t="s">
+      <c r="G190" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C191" s="34" t="d">
+      <c r="C191" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D191" s="37" t="s">
+      <c r="D191" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E191" s="35" t="s">
+      <c r="E191" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F191" s="36">
+      <c r="F191" s="31">
         <v>0.9</v>
       </c>
-      <c r="G191" s="36" t="s">
+      <c r="G191" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C192" s="34" t="d">
+      <c r="C192" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D192" s="37" t="s">
+      <c r="D192" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E192" s="35" t="s">
+      <c r="E192" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F192" s="35">
+      <c r="F192" s="30">
         <v>0.1</v>
       </c>
-      <c r="G192" s="36" t="s">
+      <c r="G192" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C193" s="34" t="d">
+      <c r="C193" s="29" t="d">
         <v>2021-12-05</v>
       </c>
-      <c r="D193" s="37" t="s">
+      <c r="D193" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E193" s="35" t="s">
+      <c r="E193" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F193" s="36">
+      <c r="F193" s="31">
         <v>0.1</v>
       </c>
-      <c r="G193" s="36" t="s">
+      <c r="G193" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C194" s="32" t="d">
+      <c r="C194" s="27" t="d">
         <v>2021-12-06</v>
       </c>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E194" s="33" t="s">
+      <c r="E194" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F194" s="33">
+      <c r="F194" s="28">
         <v>0.5</v>
       </c>
-      <c r="G194" s="27" t="s">
+      <c r="G194" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C195" s="32" t="d">
+      <c r="C195" s="27" t="d">
         <v>2021-12-06</v>
       </c>
-      <c r="D195" s="25" t="s">
+      <c r="D195" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E195" s="33" t="s">
+      <c r="E195" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F195" s="33">
+      <c r="F195" s="28">
         <v>0.5</v>
       </c>
-      <c r="G195" s="27" t="s">
+      <c r="G195" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C196" s="32" t="d">
+      <c r="C196" s="27" t="d">
         <v>2021-12-06</v>
       </c>
-      <c r="D196" s="25" t="s">
+      <c r="D196" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E196" s="33" t="s">
+      <c r="E196" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F196" s="33">
+      <c r="F196" s="28">
         <v>0.5</v>
       </c>
-      <c r="G196" s="27" t="s">
+      <c r="G196" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C197" s="32" t="d">
+      <c r="C197" s="27" t="d">
         <v>2021-12-06</v>
       </c>
-      <c r="D197" s="25" t="s">
+      <c r="D197" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="33" t="s">
+      <c r="E197" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F197" s="33">
+      <c r="F197" s="28">
         <v>0.5</v>
       </c>
-      <c r="G197" s="27" t="s">
+      <c r="G197" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C198" s="32" t="d">
+      <c r="C198" s="27" t="d">
         <v>2021-12-06</v>
       </c>
-      <c r="D198" s="25" t="s">
+      <c r="D198" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E198" s="33" t="s">
+      <c r="E198" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F198" s="33">
+      <c r="F198" s="28">
         <v>0.5</v>
       </c>
-      <c r="G198" s="27" t="s">
+      <c r="G198" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C199" s="32" t="d">
+      <c r="C199" s="27" t="d">
         <v>2021-12-07</v>
       </c>
-      <c r="D199" s="25" t="s">
+      <c r="D199" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E199" s="25" t="s">
+      <c r="E199" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F199" s="27">
+      <c r="F199" s="26">
         <v>0.3</v>
       </c>
       <c r="G199" s="26" t="s">
@@ -5695,16 +8435,16 @@
       </c>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C200" s="32" t="d">
+      <c r="C200" s="27" t="d">
         <v>2021-12-07</v>
       </c>
-      <c r="D200" s="25" t="s">
+      <c r="D200" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E200" s="25" t="s">
+      <c r="E200" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F200" s="27">
+      <c r="F200" s="26">
         <v>0.4</v>
       </c>
       <c r="G200" s="26" t="s">
@@ -5712,16 +8452,16 @@
       </c>
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C201" s="32" t="d">
+      <c r="C201" s="27" t="d">
         <v>2021-12-07</v>
       </c>
-      <c r="D201" s="25" t="s">
+      <c r="D201" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="25" t="s">
+      <c r="E201" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F201" s="27">
+      <c r="F201" s="26">
         <v>0.4</v>
       </c>
       <c r="G201" s="26" t="s">
@@ -5729,16 +8469,16 @@
       </c>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C202" s="32" t="d">
+      <c r="C202" s="27" t="d">
         <v>2021-12-07</v>
       </c>
-      <c r="D202" s="25" t="s">
+      <c r="D202" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E202" s="25" t="s">
+      <c r="E202" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F202" s="27">
+      <c r="F202" s="26">
         <v>0.4</v>
       </c>
       <c r="G202" s="26" t="s">
@@ -5746,16 +8486,16 @@
       </c>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C203" s="32" t="d">
+      <c r="C203" s="27" t="d">
         <v>2021-12-07</v>
       </c>
-      <c r="D203" s="25" t="s">
+      <c r="D203" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E203" s="25" t="s">
+      <c r="E203" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F203" s="27">
+      <c r="F203" s="26">
         <v>0.4</v>
       </c>
       <c r="G203" s="26" t="s">
@@ -5763,276 +8503,1737 @@
       </c>
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C204" s="32" t="d">
+      <c r="C204" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D204" s="25" t="s">
+      <c r="D204" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E204" s="25" t="s">
+      <c r="E204" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F204" s="27">
+      <c r="F204" s="26">
         <v>0.3</v>
       </c>
-      <c r="G204" s="27" t="s">
+      <c r="G204" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C205" s="32" t="d">
+      <c r="C205" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D205" s="25" t="s">
+      <c r="D205" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="25" t="s">
+      <c r="E205" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F205" s="27">
+      <c r="F205" s="26">
         <v>0.3</v>
       </c>
-      <c r="G205" s="27" t="s">
+      <c r="G205" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C206" s="32" t="d">
+      <c r="C206" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D206" s="25" t="s">
+      <c r="D206" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E206" s="25" t="s">
+      <c r="E206" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F206" s="27">
+      <c r="F206" s="26">
         <v>0.3</v>
       </c>
-      <c r="G206" s="27" t="s">
+      <c r="G206" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C207" s="32" t="d">
+      <c r="C207" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D207" s="25" t="s">
+      <c r="D207" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E207" s="25" t="s">
+      <c r="E207" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F207" s="27">
+      <c r="F207" s="26">
         <v>0.3</v>
       </c>
-      <c r="G207" s="27" t="s">
+      <c r="G207" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C208" s="32" t="d">
+      <c r="C208" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D208" s="25" t="s">
+      <c r="D208" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E208" s="25" t="s">
+      <c r="E208" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F208" s="27">
+      <c r="F208" s="26">
         <v>0.3</v>
       </c>
-      <c r="G208" s="27" t="s">
+      <c r="G208" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="209" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C209" s="32" t="d">
+      <c r="C209" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D209" s="25" t="s">
+      <c r="D209" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E209" s="40" t="s">
+      <c r="E209" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F209" s="27">
+      <c r="F209" s="26">
         <v>0.3</v>
       </c>
-      <c r="G209" s="27" t="s">
+      <c r="G209" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="210" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C210" s="32" t="d">
+      <c r="C210" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D210" s="25" t="s">
+      <c r="D210" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E210" s="40" t="s">
+      <c r="E210" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F210" s="27">
+      <c r="F210" s="26">
         <v>0.3</v>
       </c>
-      <c r="G210" s="27" t="s">
+      <c r="G210" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="211" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C211" s="32" t="d">
+      <c r="C211" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D211" s="25" t="s">
+      <c r="D211" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E211" s="40" t="s">
+      <c r="E211" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F211" s="27">
+      <c r="F211" s="26">
         <v>0.3</v>
       </c>
-      <c r="G211" s="27" t="s">
+      <c r="G211" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="212" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C212" s="32" t="d">
+      <c r="C212" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D212" s="25" t="s">
+      <c r="D212" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E212" s="40" t="s">
+      <c r="E212" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F212" s="27">
+      <c r="F212" s="26">
         <v>0.3</v>
       </c>
-      <c r="G212" s="27" t="s">
+      <c r="G212" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="213" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C213" s="32" t="d">
+      <c r="C213" s="27" t="d">
         <v>2021-12-08</v>
       </c>
-      <c r="D213" s="25" t="s">
+      <c r="D213" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E213" s="40" t="s">
+      <c r="E213" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F213" s="40">
+      <c r="F213" s="28">
         <v>0.3</v>
       </c>
-      <c r="G213" s="27" t="s">
+      <c r="G213" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="214" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C214" s="32" t="d">
+      <c r="C214" s="27" t="d">
         <v>2021-12-09</v>
       </c>
-      <c r="D214" s="25" t="s">
+      <c r="D214" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E214" s="33" t="s">
+      <c r="E214" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F214" s="27">
+      <c r="F214" s="26">
         <v>1</v>
       </c>
-      <c r="G214" s="27" t="s">
+      <c r="G214" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="215" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C215" s="32" t="d">
+      <c r="C215" s="27" t="d">
         <v>2021-12-09</v>
       </c>
-      <c r="D215" s="25" t="s">
+      <c r="D215" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="33" t="s">
+      <c r="E215" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F215" s="27">
+      <c r="F215" s="26">
         <v>1</v>
       </c>
-      <c r="G215" s="27" t="s">
+      <c r="G215" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="216" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C216" s="32" t="d">
+      <c r="C216" s="27" t="d">
         <v>2021-12-09</v>
       </c>
-      <c r="D216" s="25" t="s">
+      <c r="D216" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E216" s="33" t="s">
+      <c r="E216" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F216" s="27">
+      <c r="F216" s="26">
         <v>1</v>
       </c>
-      <c r="G216" s="27" t="s">
+      <c r="G216" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="217" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C217" s="32" t="d">
+      <c r="C217" s="27" t="d">
         <v>2021-12-09</v>
       </c>
-      <c r="D217" s="25" t="s">
+      <c r="D217" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E217" s="33" t="s">
+      <c r="E217" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F217" s="27">
+      <c r="F217" s="26">
         <v>1</v>
       </c>
-      <c r="G217" s="27" t="s">
+      <c r="G217" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="218" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C218" s="32" t="d">
+      <c r="C218" s="27" t="d">
         <v>2021-12-09</v>
       </c>
-      <c r="D218" s="25" t="s">
+      <c r="D218" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E218" s="33" t="s">
+      <c r="E218" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F218" s="27">
+      <c r="F218" s="26">
         <v>1</v>
       </c>
-      <c r="G218" s="27" t="s">
+      <c r="G218" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="219" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C219" s="39" t="d">
+      <c r="C219" s="27" t="d">
         <v>2021-12-09</v>
       </c>
-      <c r="D219" s="25" t="s">
+      <c r="D219" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E219" s="40" t="s">
+      <c r="E219" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F219" s="40">
+      <c r="F219" s="28">
         <v>0.1</v>
       </c>
       <c r="G219" s="26" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C220" s="57" t="d">
+        <v>2021-12-10</v>
+      </c>
+      <c r="D220" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="56">
+        <v>1</v>
+      </c>
+      <c r="G220" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C221" s="57" t="d">
+        <v>2021-12-10</v>
+      </c>
+      <c r="D221" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E221" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" s="56">
+        <v>1</v>
+      </c>
+      <c r="G221" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C222" s="57" t="d">
+        <v>2021-12-10</v>
+      </c>
+      <c r="D222" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="56">
+        <v>1</v>
+      </c>
+      <c r="G222" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C223" s="57" t="d">
+        <v>2021-12-10</v>
+      </c>
+      <c r="D223" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="56">
+        <v>1</v>
+      </c>
+      <c r="G223" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C224" s="57" t="d">
+        <v>2021-12-11</v>
+      </c>
+      <c r="D224" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="56">
+        <v>1</v>
+      </c>
+      <c r="G224" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C225" s="57" t="d">
+        <v>2021-12-12</v>
+      </c>
+      <c r="D225" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="56">
+        <v>1</v>
+      </c>
+      <c r="G225" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C226" s="57" t="d">
+        <v>2021-12-12</v>
+      </c>
+      <c r="D226" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="56">
+        <v>1</v>
+      </c>
+      <c r="G226" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C227" s="57" t="d">
+        <v>2021-12-12</v>
+      </c>
+      <c r="D227" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E227" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" s="56">
+        <v>1</v>
+      </c>
+      <c r="G227" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C228" s="57" t="d">
+        <v>2021-12-12</v>
+      </c>
+      <c r="D228" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="56">
+        <v>1</v>
+      </c>
+      <c r="G228" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C229" s="57" t="d">
+        <v>2021-12-12</v>
+      </c>
+      <c r="D229" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="56">
+        <v>1</v>
+      </c>
+      <c r="G229" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C230" s="57" t="d">
+        <v>2021-12-15</v>
+      </c>
+      <c r="D230" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G230" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C231" s="57" t="d">
+        <v>2021-12-15</v>
+      </c>
+      <c r="D231" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G231" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C232" s="57" t="d">
+        <v>2021-12-15</v>
+      </c>
+      <c r="D232" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F232" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G232" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C233" s="57" t="d">
+        <v>2021-12-15</v>
+      </c>
+      <c r="D233" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G233" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C234" s="57" t="d">
+        <v>2021-12-15</v>
+      </c>
+      <c r="D234" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F234" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="G234" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C235" s="57" t="d">
+        <v>2021-12-16</v>
+      </c>
+      <c r="D235" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="G235" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C236" s="57" t="d">
+        <v>2021-12-16</v>
+      </c>
+      <c r="D236" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="G236" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C237" s="58" t="d">
+        <v>2021-12-17</v>
+      </c>
+      <c r="D237" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="G237" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C238" s="58" t="d">
+        <v>2021-12-17</v>
+      </c>
+      <c r="D238" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="G238" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C239" s="58" t="d">
+        <v>2021-12-17</v>
+      </c>
+      <c r="D239" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="G239" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C240" s="58" t="d">
+        <v>2021-12-17</v>
+      </c>
+      <c r="D240" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G240" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C241" s="59"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C242" s="59"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C243" s="59"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C244" s="59"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C245" s="59"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C246" s="59"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C247" s="59"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C248" s="59"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C249" s="59"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C250" s="59"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C251" s="59"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C252" s="59"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C253" s="59"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C254" s="59"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C255" s="59"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C256" s="59"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C257" s="59"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C258" s="59"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C259" s="59"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C260" s="59"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C261" s="59"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C262" s="59"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C263" s="59"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C264" s="59"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C265" s="59"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C266" s="59"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C267" s="59"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C268" s="59"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C269" s="59"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C270" s="59"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C271" s="59"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C272" s="59"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C273" s="59"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C274" s="59"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C275" s="59"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C276" s="59"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C277" s="59"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C278" s="59"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C279" s="59"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C280" s="59"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C281" s="59"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C282" s="59"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C283" s="59"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C284" s="59"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C285" s="59"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C286" s="59"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C287" s="59"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C288" s="59"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C289" s="59"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C290" s="59"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C291" s="59"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C292" s="59"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C293" s="59"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C294" s="59"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C295" s="59"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C296" s="59"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C297" s="59"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C298" s="59"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C299" s="59"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C300" s="59"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C301" s="59"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C302" s="59"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C303" s="59"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C304" s="59"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C305" s="59"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C306" s="59"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C307" s="59"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C308" s="59"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C309" s="59"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C310" s="59"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C311" s="59"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C312" s="59"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C313" s="59"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C314" s="59"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C315" s="59"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C316" s="59"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C317" s="59"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C318" s="59"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C319" s="59"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C320" s="59"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C321" s="59"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C322" s="59"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C323" s="59"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C324" s="59"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C325" s="59"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C326" s="59"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C327" s="59"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C328" s="59"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C329" s="59"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C330" s="59"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C331" s="59"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C332" s="59"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C333" s="59"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C334" s="59"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C335" s="59"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C336" s="59"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C337" s="59"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C338" s="59"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C339" s="59"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C340" s="59"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C341" s="59"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C342" s="59"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C343" s="59"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C344" s="59"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C345" s="59"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C346" s="59"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C347" s="59"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C348" s="59"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C349" s="59"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C350" s="59"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C351" s="59"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C352" s="59"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C353" s="59"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C354" s="59"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C355" s="59"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C356" s="59"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C357" s="59"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C358" s="59"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C359" s="59"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C360" s="59"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C361" s="59"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C362" s="59"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C363" s="59"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C364" s="59"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C365" s="59"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C366" s="59"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C367" s="59"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C368" s="59"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C369" s="59"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C370" s="59"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C371" s="59"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C372" s="59"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C373" s="59"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C374" s="59"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C375" s="59"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C376" s="59"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C377" s="59"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C378" s="59"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C379" s="59"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C380" s="59"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C381" s="59"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C382" s="59"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C383" s="59"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C384" s="59"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C385" s="59"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C386" s="59"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C387" s="59"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C388" s="59"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C389" s="59"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C390" s="59"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C391" s="59"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C392" s="59"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C393" s="59"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C394" s="59"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C395" s="59"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C396" s="59"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C397" s="59"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C398" s="59"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C399" s="59"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C400" s="59"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C401" s="59"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C402" s="59"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C403" s="59"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C404" s="59"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C405" s="59"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C406" s="59"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C407" s="59"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C408" s="59"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C409" s="59"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C410" s="59"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C411" s="59"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C412" s="59"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C413" s="59"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C414" s="59"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C415" s="59"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C416" s="59"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C417" s="59"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C418" s="59"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C419" s="59"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C420" s="59"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C421" s="59"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C422" s="59"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C423" s="59"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C424" s="59"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C425" s="59"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C426" s="59"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C427" s="59"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C428" s="59"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C429" s="59"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C430" s="59"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C431" s="59"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C432" s="59"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C433" s="59"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C434" s="59"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C435" s="59"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C436" s="59"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C437" s="59"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C438" s="59"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C439" s="59"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C440" s="59"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C441" s="59"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C442" s="59"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C443" s="59"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C444" s="59"/>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C445" s="59"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C446" s="59"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C447" s="59"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C448" s="59"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C449" s="59"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C450" s="59"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C451" s="59"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C452" s="59"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C453" s="59"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C454" s="59"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C455" s="59"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C456" s="59"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C457" s="59"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C458" s="59"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C459" s="59"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C460" s="59"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C461" s="59"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C462" s="59"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C463" s="59"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C464" s="59"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C465" s="59"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C466" s="59"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C467" s="59"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C468" s="59"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C469" s="59"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C470" s="59"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C471" s="59"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C472" s="59"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C473" s="59"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C474" s="59"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C475" s="59"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C476" s="59"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C477" s="59"/>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C478" s="59"/>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C479" s="59"/>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C480" s="59"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C481" s="59"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C482" s="59"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C483" s="59"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C484" s="59"/>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C485" s="59"/>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C486" s="59"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C487" s="59"/>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C488" s="59"/>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C489" s="59"/>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C490" s="59"/>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C491" s="59"/>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C492" s="59"/>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C493" s="59"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C494" s="59"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C495" s="59"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C496" s="59"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C497" s="59"/>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C498" s="59"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C499" s="59"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C500" s="59"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C501" s="59"/>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C502" s="59"/>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C503" s="59"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C504" s="59"/>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C505" s="59"/>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C506" s="59"/>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C507" s="59"/>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C508" s="59"/>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C509" s="59"/>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C510" s="59"/>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C511" s="59"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C512" s="59"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C513" s="59"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C514" s="59"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C515" s="59"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C516" s="59"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C517" s="59"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C518" s="59"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C519" s="59"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C520" s="59"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C521" s="59"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C522" s="59"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C523" s="59"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C524" s="59"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C525" s="59"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C526" s="59"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C527" s="59"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C528" s="59"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C529" s="59"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C530" s="59"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C531" s="59"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C532" s="59"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C533" s="59"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C534" s="59"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C535" s="59"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C536" s="59"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C537" s="59"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C538" s="59"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C539" s="59"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C540" s="59"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C541" s="59"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C542" s="59"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C543" s="59"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C544" s="59"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C545" s="59"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C546" s="59"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C547" s="59"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C548" s="59"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C549" s="59"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C550" s="59"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C551" s="59"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C552" s="59"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C553" s="59"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C554" s="59"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C555" s="59"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C556" s="59"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C557" s="59"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C558" s="59"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C559" s="59"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C560" s="59"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C561" s="59"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C562" s="59"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C563" s="59"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C564" s="59"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C565" s="59"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C566" s="59"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C567" s="59"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C568" s="59"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C569" s="59"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C570" s="59"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C571" s="59"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C572" s="59"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C573" s="59"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C574" s="59"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C575" s="59"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C576" s="59"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C577" s="59"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C578" s="59"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C579" s="59"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C580" s="59"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C581" s="59"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C582" s="59"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C583" s="59"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C584" s="59"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C585" s="59"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C586" s="59"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C587" s="59"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C588" s="59"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C589" s="59"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C590" s="59"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C591" s="59"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C592" s="59"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C593" s="59"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C594" s="59"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C595" s="59"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C596" s="59"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C597" s="59"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C598" s="59"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C599" s="59"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C600" s="59"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C601" s="59"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C602" s="59"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C603" s="59"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C604" s="59"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C605" s="59"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C606" s="59"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C607" s="59"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C608" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -6049,7 +10250,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6064,176 +10265,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="47">
-        <v>0.6</v>
-      </c>
-      <c r="C5" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="49">
-        <v>3.3999999999999995</v>
+      <c r="B5" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="B6" s="44"/>
+      <c r="C6" s="5">
         <v>0.1</v>
       </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="52">
+      <c r="G6" s="45">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="51">
-        <v>1</v>
+      <c r="B7" s="44">
+        <v>0.4</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="52">
-        <v>5</v>
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="45">
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
+      <c r="B8" s="44">
+        <v>2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="E8" s="5">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="52">
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="45">
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="47">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="52">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="54">
-        <v>2.4</v>
-      </c>
-      <c r="C10" s="55">
+      <c r="C10" s="48">
         <v>2.5</v>
       </c>
-      <c r="D10" s="55">
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="E10" s="55">
+      <c r="D10" s="48">
         <v>2.5</v>
       </c>
-      <c r="F10" s="55">
+      <c r="E10" s="48">
         <v>2.5</v>
       </c>
-      <c r="G10" s="56">
+      <c r="F10" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="49">
         <v>12.5</v>
       </c>
     </row>
